--- a/Cargas Diarias/Cargas Diarias.xlsx
+++ b/Cargas Diarias/Cargas Diarias.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puesto 17\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puesto 17\Desktop\Github\Partes\Cargas Diarias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332D6ED2-0389-44F8-B11F-E33987E972D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99ADAFF4-9A6A-41D9-97E4-4E134D0E879B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BCD83F86-A6AF-4FE0-AF75-50E1C7367F1C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="221">
   <si>
     <t xml:space="preserve">DIA  CARGA </t>
   </si>
@@ -698,6 +698,9 @@
   </si>
   <si>
     <t>ARTESANIA DEL HORNO</t>
+  </si>
+  <si>
+    <t>PANIFICADORA ERELU</t>
   </si>
 </sst>
 </file>
@@ -1665,7 +1668,7 @@
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -35021,21 +35024,31 @@
       <c r="H1047612" s="18"/>
       <c r="I1047612" s="19"/>
     </row>
-    <row r="1047613" spans="5:10" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1047613" s="20">
+    <row r="1047613" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1047613" s="17">
         <v>524</v>
       </c>
-      <c r="F1047613" s="21" t="s">
+      <c r="F1047613" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="G1047613" s="21" t="s">
+      <c r="G1047613" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H1047613" s="22"/>
-      <c r="I1047613" s="23"/>
-    </row>
-    <row r="1047614" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H1047614" s="24"/>
+      <c r="H1047613" s="18"/>
+      <c r="I1047613" s="19"/>
+    </row>
+    <row r="1047614" spans="5:10" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1047614" s="20">
+        <v>515</v>
+      </c>
+      <c r="F1047614" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="G1047614" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1047614" s="22"/>
+      <c r="I1047614" s="23"/>
     </row>
     <row r="1047615" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1047615" s="24"/>

--- a/Cargas Diarias/Cargas Diarias.xlsx
+++ b/Cargas Diarias/Cargas Diarias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puesto 17\Desktop\Github\Partes\Cargas Diarias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99ADAFF4-9A6A-41D9-97E4-4E134D0E879B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC7AC0A-9A8E-4E5D-A6AE-52F1FCEF1805}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BCD83F86-A6AF-4FE0-AF75-50E1C7367F1C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="222">
   <si>
     <t xml:space="preserve">DIA  CARGA </t>
   </si>
@@ -137,9 +137,6 @@
   </si>
   <si>
     <t>ALCALA HENARES</t>
-  </si>
-  <si>
-    <t>ALCAMPO</t>
   </si>
   <si>
     <t>EUGENIO</t>
@@ -701,6 +698,12 @@
   </si>
   <si>
     <t>PANIFICADORA ERELU</t>
+  </si>
+  <si>
+    <t>ALCAMPO CONGELADO</t>
+  </si>
+  <si>
+    <t>ALCAMPO FRESCO</t>
   </si>
 </sst>
 </file>
@@ -1668,7 +1671,7 @@
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1692,7 +1695,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1719,7 +1722,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -1786,7 +1789,7 @@
         <v/>
       </c>
       <c r="L2" s="7" t="str">
-        <f>IF(F2="ALCAMPO CONGELADO ZARAGOZA",22.04,"")</f>
+        <f>IF(F2="ALCAMPO CONGELADO ZARAGOZA",IF(I2&lt;27,22.04,""),"")</f>
         <v/>
       </c>
       <c r="M2" s="7" t="str">
@@ -1850,7 +1853,7 @@
         <v/>
       </c>
       <c r="L3" s="7" t="str">
-        <f>IF(F3="ALCAMPO CONGELADO ZARAGOZA",22.04,"")</f>
+        <f t="shared" ref="L3:L66" si="4">IF(F3="ALCAMPO CONGELADO ZARAGOZA",IF(I3&lt;27,22.04,""),"")</f>
         <v/>
       </c>
       <c r="M3" s="7" t="str">
@@ -1914,7 +1917,7 @@
         <v/>
       </c>
       <c r="L4" s="7" t="str">
-        <f t="shared" ref="L4:L67" si="4">IF(F4="ALCAMPO CONGELADO ZARAGOZA",22.04,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M4" s="7" t="str">
@@ -5947,7 +5950,7 @@
         <v/>
       </c>
       <c r="L67" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="L67:L130" si="14">IF(F67="ALCAMPO CONGELADO ZARAGOZA",IF(I67&lt;27,22.04,""),"")</f>
         <v/>
       </c>
       <c r="M67" s="7" t="str">
@@ -6011,7 +6014,7 @@
         <v/>
       </c>
       <c r="L68" s="7" t="str">
-        <f t="shared" ref="L68:L131" si="14">IF(F68="ALCAMPO CONGELADO ZARAGOZA",22.04,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="M68" s="7" t="str">
@@ -10043,7 +10046,7 @@
         <v/>
       </c>
       <c r="L131" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="L131:L194" si="24">IF(F131="ALCAMPO CONGELADO ZARAGOZA",IF(I131&lt;27,22.04,""),"")</f>
         <v/>
       </c>
       <c r="M131" s="7" t="str">
@@ -10107,7 +10110,7 @@
         <v/>
       </c>
       <c r="L132" s="7" t="str">
-        <f t="shared" ref="L132:L195" si="24">IF(F132="ALCAMPO CONGELADO ZARAGOZA",22.04,"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="M132" s="7" t="str">
@@ -14139,7 +14142,7 @@
         <v/>
       </c>
       <c r="L195" s="7" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="L195:L258" si="34">IF(F195="ALCAMPO CONGELADO ZARAGOZA",IF(I195&lt;27,22.04,""),"")</f>
         <v/>
       </c>
       <c r="M195" s="7" t="str">
@@ -14203,7 +14206,7 @@
         <v/>
       </c>
       <c r="L196" s="7" t="str">
-        <f t="shared" ref="L196:L259" si="34">IF(F196="ALCAMPO CONGELADO ZARAGOZA",22.04,"")</f>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="M196" s="7" t="str">
@@ -18235,7 +18238,7 @@
         <v/>
       </c>
       <c r="L259" s="7" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="L259:L322" si="44">IF(F259="ALCAMPO CONGELADO ZARAGOZA",IF(I259&lt;27,22.04,""),"")</f>
         <v/>
       </c>
       <c r="M259" s="7" t="str">
@@ -18299,7 +18302,7 @@
         <v/>
       </c>
       <c r="L260" s="7" t="str">
-        <f t="shared" ref="L260:L323" si="44">IF(F260="ALCAMPO CONGELADO ZARAGOZA",22.04,"")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M260" s="7" t="str">
@@ -22331,7 +22334,7 @@
         <v/>
       </c>
       <c r="L323" s="7" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="L323:L386" si="53">IF(F323="ALCAMPO CONGELADO ZARAGOZA",IF(I323&lt;27,22.04,""),"")</f>
         <v/>
       </c>
       <c r="M323" s="7" t="str">
@@ -22395,7 +22398,7 @@
         <v/>
       </c>
       <c r="L324" s="7" t="str">
-        <f t="shared" ref="L324:L387" si="53">IF(F324="ALCAMPO CONGELADO ZARAGOZA",22.04,"")</f>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="M324" s="7" t="str">
@@ -26427,7 +26430,7 @@
         <v/>
       </c>
       <c r="L387" s="7" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" ref="L387:L450" si="62">IF(F387="ALCAMPO CONGELADO ZARAGOZA",IF(I387&lt;27,22.04,""),"")</f>
         <v/>
       </c>
       <c r="M387" s="7" t="str">
@@ -26491,7 +26494,7 @@
         <v/>
       </c>
       <c r="L388" s="7" t="str">
-        <f t="shared" ref="L388:L451" si="62">IF(F388="ALCAMPO CONGELADO ZARAGOZA",22.04,"")</f>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="M388" s="7" t="str">
@@ -30523,7 +30526,7 @@
         <v/>
       </c>
       <c r="L451" s="7" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" ref="L451:L488" si="71">IF(F451="ALCAMPO CONGELADO ZARAGOZA",IF(I451&lt;27,22.04,""),"")</f>
         <v/>
       </c>
       <c r="M451" s="7" t="str">
@@ -30587,7 +30590,7 @@
         <v/>
       </c>
       <c r="L452" s="7" t="str">
-        <f t="shared" ref="L452:L488" si="71">IF(F452="ALCAMPO CONGELADO ZARAGOZA",22.04,"")</f>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="M452" s="7" t="str">
@@ -32955,10 +32958,10 @@
       </c>
       <c r="J1047488" s="49"/>
       <c r="L1047488" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="M1047488" s="27" t="s">
         <v>191</v>
-      </c>
-      <c r="M1047488" s="27" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="1047489" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32981,11 +32984,11 @@
         <v>0.28499999999999998</v>
       </c>
       <c r="I1047489" s="16" t="s">
-        <v>33</v>
+        <v>220</v>
       </c>
       <c r="J1047489" s="49"/>
       <c r="L1047489" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M1047489" s="29">
         <v>400</v>
@@ -32993,7 +32996,7 @@
     </row>
     <row r="1047490" spans="2:13" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1047490" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1047490" s="42">
         <v>0</v>
@@ -33002,20 +33005,20 @@
         <v>457</v>
       </c>
       <c r="F1047490" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1047490" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="G1047490" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="H1047490" s="18">
         <v>0.28499999999999998</v>
       </c>
       <c r="I1047490" s="19" t="s">
-        <v>33</v>
+        <v>220</v>
       </c>
       <c r="J1047490" s="49"/>
       <c r="L1047490" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M1047490" s="31">
         <v>300</v>
@@ -33032,20 +33035,20 @@
         <v>6006</v>
       </c>
       <c r="F1047491" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1047491" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="G1047491" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="H1047491" s="18">
         <v>0.28499999999999998</v>
       </c>
       <c r="I1047491" s="19" t="s">
-        <v>33</v>
+        <v>220</v>
       </c>
       <c r="J1047491" s="49"/>
       <c r="L1047491" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M1047491" s="33">
         <v>350</v>
@@ -33053,7 +33056,7 @@
     </row>
     <row r="1047492" spans="2:13" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1047492" s="41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1047492" s="42">
         <v>0</v>
@@ -33062,20 +33065,20 @@
         <v>6007</v>
       </c>
       <c r="F1047492" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G1047492" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H1047492" s="18">
         <v>0.28499999999999998</v>
       </c>
       <c r="I1047492" s="19" t="s">
-        <v>33</v>
+        <v>220</v>
       </c>
       <c r="J1047492" s="49"/>
       <c r="L1047492" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M1047492" s="33">
         <v>250</v>
@@ -33083,7 +33086,7 @@
     </row>
     <row r="1047493" spans="2:13" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1047493" s="41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1047493" s="42">
         <v>0</v>
@@ -33092,20 +33095,20 @@
         <v>459</v>
       </c>
       <c r="F1047493" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G1047493" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H1047493" s="18">
-        <v>0.28499999999999998</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="I1047493" s="19" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="J1047493" s="49"/>
       <c r="L1047493" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M1047493" s="33">
         <v>700</v>
@@ -33113,7 +33116,7 @@
     </row>
     <row r="1047494" spans="2:13" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1047494" s="41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1047494" s="42">
         <v>0</v>
@@ -33122,20 +33125,20 @@
         <v>460</v>
       </c>
       <c r="F1047494" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G1047494" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H1047494" s="18">
-        <v>0.28499999999999998</v>
+        <v>0</v>
       </c>
       <c r="I1047494" s="19" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="J1047494" s="49"/>
       <c r="L1047494" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M1047494" s="34">
         <v>200</v>
@@ -33143,7 +33146,7 @@
     </row>
     <row r="1047495" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1047495" s="41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1047495" s="42">
         <v>0</v>
@@ -33152,22 +33155,22 @@
         <v>461</v>
       </c>
       <c r="F1047495" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G1047495" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H1047495" s="18">
-        <v>0.28499999999999998</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="I1047495" s="19" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="J1047495" s="49"/>
     </row>
     <row r="1047496" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1047496" s="41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1047496" s="42">
         <v>0</v>
@@ -33176,16 +33179,16 @@
         <v>6000</v>
       </c>
       <c r="F1047496" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G1047496" s="5" t="s">
         <v>32</v>
       </c>
       <c r="H1047496" s="18">
-        <v>0.28499999999999998</v>
+        <v>0</v>
       </c>
       <c r="I1047496" s="19" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="J1047496" s="49"/>
     </row>
@@ -33200,16 +33203,16 @@
         <v>6001</v>
       </c>
       <c r="F1047497" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1047497" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G1047497" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="H1047497" s="18">
-        <v>0.28499999999999998</v>
+        <v>0</v>
       </c>
       <c r="I1047497" s="19" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="J1047497" s="49"/>
     </row>
@@ -33224,16 +33227,16 @@
         <v>6005</v>
       </c>
       <c r="F1047498" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G1047498" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H1047498" s="18">
-        <v>0.28499999999999998</v>
+        <v>0</v>
       </c>
       <c r="I1047498" s="19" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="J1047498" s="49"/>
     </row>
@@ -33248,10 +33251,10 @@
         <v>12</v>
       </c>
       <c r="F1047499" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1047499" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="G1047499" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="H1047499" s="18"/>
       <c r="I1047499" s="19"/>
@@ -33259,7 +33262,7 @@
     </row>
     <row r="1047500" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1047500" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1047500" s="42">
         <v>0.12</v>
@@ -33268,10 +33271,10 @@
         <v>410</v>
       </c>
       <c r="F1047500" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G1047500" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H1047500" s="18"/>
       <c r="I1047500" s="19"/>
@@ -33288,10 +33291,10 @@
         <v>109</v>
       </c>
       <c r="F1047501" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1047501" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="G1047501" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="H1047501" s="18"/>
       <c r="I1047501" s="19"/>
@@ -33308,10 +33311,10 @@
         <v>176</v>
       </c>
       <c r="F1047502" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1047502" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="G1047502" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="H1047502" s="18"/>
       <c r="I1047502" s="19"/>
@@ -33319,7 +33322,7 @@
     </row>
     <row r="1047503" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1047503" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1047503" s="42">
         <v>0</v>
@@ -33328,10 +33331,10 @@
         <v>305</v>
       </c>
       <c r="F1047503" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1047503" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="G1047503" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="H1047503" s="18"/>
       <c r="I1047503" s="19"/>
@@ -33339,7 +33342,7 @@
     </row>
     <row r="1047504" spans="2:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1047504" s="41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1047504" s="42">
         <v>0</v>
@@ -33348,10 +33351,10 @@
         <v>57</v>
       </c>
       <c r="F1047504" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1047504" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="G1047504" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="H1047504" s="18"/>
       <c r="I1047504" s="19"/>
@@ -33359,7 +33362,7 @@
     </row>
     <row r="1047505" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1047505" s="41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C1047505" s="42">
         <v>0</v>
@@ -33368,10 +33371,10 @@
         <v>300</v>
       </c>
       <c r="F1047505" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1047505" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="G1047505" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="H1047505" s="18"/>
       <c r="I1047505" s="19"/>
@@ -33379,7 +33382,7 @@
     </row>
     <row r="1047506" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1047506" s="41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C1047506" s="42">
         <v>0.23</v>
@@ -33388,22 +33391,22 @@
         <v>20496</v>
       </c>
       <c r="F1047506" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1047506" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="G1047506" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="H1047506" s="18">
         <v>0.28999999999999998</v>
       </c>
       <c r="I1047506" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J1047506" s="49"/>
     </row>
     <row r="1047507" spans="2:10" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1047507" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C1047507" s="43">
         <v>0</v>
@@ -33412,16 +33415,16 @@
         <v>20492</v>
       </c>
       <c r="F1047507" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1047507" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="G1047507" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="H1047507" s="18">
         <v>0.27039999999999997</v>
       </c>
       <c r="I1047507" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J1047507" s="49"/>
     </row>
@@ -33430,16 +33433,16 @@
         <v>20491</v>
       </c>
       <c r="F1047508" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1047508" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="G1047508" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="H1047508" s="18">
         <v>0.27039999999999997</v>
       </c>
       <c r="I1047508" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J1047508" s="49"/>
     </row>
@@ -33448,16 +33451,16 @@
         <v>20485</v>
       </c>
       <c r="F1047509" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G1047509" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H1047509" s="18">
         <v>0.27039999999999997</v>
       </c>
       <c r="I1047509" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J1047509" s="49"/>
     </row>
@@ -33466,16 +33469,16 @@
         <v>20487</v>
       </c>
       <c r="F1047510" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G1047510" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H1047510" s="18">
         <v>0.27039999999999997</v>
       </c>
       <c r="I1047510" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J1047510" s="49"/>
     </row>
@@ -33484,16 +33487,16 @@
         <v>20486</v>
       </c>
       <c r="F1047511" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1047511" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="G1047511" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="H1047511" s="18">
         <v>0.27039999999999997</v>
       </c>
       <c r="I1047511" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J1047511" s="49"/>
     </row>
@@ -33502,16 +33505,16 @@
         <v>20488</v>
       </c>
       <c r="F1047512" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G1047512" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H1047512" s="18">
         <v>0.27039999999999997</v>
       </c>
       <c r="I1047512" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J1047512" s="49"/>
     </row>
@@ -33520,16 +33523,16 @@
         <v>20490</v>
       </c>
       <c r="F1047513" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1047513" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="G1047513" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="H1047513" s="18">
         <v>0.27039999999999997</v>
       </c>
       <c r="I1047513" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J1047513" s="49"/>
     </row>
@@ -33538,16 +33541,16 @@
         <v>20497</v>
       </c>
       <c r="F1047514" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G1047514" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H1047514" s="18">
         <v>0.28999999999999998</v>
       </c>
       <c r="I1047514" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J1047514" s="49"/>
     </row>
@@ -33556,16 +33559,16 @@
         <v>20499</v>
       </c>
       <c r="F1047515" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1047515" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="G1047515" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="H1047515" s="18">
         <v>0.28999999999999998</v>
       </c>
       <c r="I1047515" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J1047515" s="49"/>
     </row>
@@ -33574,16 +33577,16 @@
         <v>20489</v>
       </c>
       <c r="F1047516" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G1047516" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H1047516" s="18">
         <v>0.27039999999999997</v>
       </c>
       <c r="I1047516" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J1047516" s="49"/>
     </row>
@@ -33592,16 +33595,16 @@
         <v>20493</v>
       </c>
       <c r="F1047517" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G1047517" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H1047517" s="18">
         <v>0.27039999999999997</v>
       </c>
       <c r="I1047517" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J1047517" s="49"/>
     </row>
@@ -33610,16 +33613,16 @@
         <v>20494</v>
       </c>
       <c r="F1047518" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G1047518" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H1047518" s="18">
         <v>0.27039999999999997</v>
       </c>
       <c r="I1047518" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J1047518" s="49"/>
     </row>
@@ -33628,16 +33631,16 @@
         <v>20495</v>
       </c>
       <c r="F1047519" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1047519" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="G1047519" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="H1047519" s="18">
         <v>0.27039999999999997</v>
       </c>
       <c r="I1047519" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J1047519" s="49"/>
     </row>
@@ -33646,16 +33649,16 @@
         <v>20498</v>
       </c>
       <c r="F1047520" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1047520" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="G1047520" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="H1047520" s="18">
         <v>0.28999999999999998</v>
       </c>
       <c r="I1047520" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J1047520" s="49"/>
     </row>
@@ -33664,16 +33667,16 @@
         <v>408</v>
       </c>
       <c r="F1047521" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1047521" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="G1047521" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="H1047521" s="18">
         <v>0.01</v>
       </c>
       <c r="I1047521" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J1047521" s="49"/>
     </row>
@@ -33682,16 +33685,16 @@
         <v>406</v>
       </c>
       <c r="F1047522" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1047522" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="G1047522" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="H1047522" s="18">
         <v>0.01</v>
       </c>
       <c r="I1047522" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J1047522" s="49"/>
     </row>
@@ -33700,10 +33703,10 @@
         <v>206</v>
       </c>
       <c r="F1047523" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1047523" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="G1047523" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="H1047523" s="18"/>
       <c r="I1047523" s="19"/>
@@ -33714,10 +33717,10 @@
         <v>127</v>
       </c>
       <c r="F1047524" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G1047524" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H1047524" s="18"/>
       <c r="I1047524" s="19"/>
@@ -33728,10 +33731,10 @@
         <v>207</v>
       </c>
       <c r="F1047525" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G1047525" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H1047525" s="18"/>
       <c r="I1047525" s="19"/>
@@ -33742,10 +33745,10 @@
         <v>503</v>
       </c>
       <c r="F1047526" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1047526" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="G1047526" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="H1047526" s="18"/>
       <c r="I1047526" s="19"/>
@@ -33756,10 +33759,10 @@
         <v>256</v>
       </c>
       <c r="F1047527" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1047527" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="G1047527" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="H1047527" s="18"/>
       <c r="I1047527" s="19"/>
@@ -33770,16 +33773,16 @@
         <v>3</v>
       </c>
       <c r="F1047528" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1047528" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="G1047528" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="H1047528" s="18">
         <v>3.85E-2</v>
       </c>
       <c r="I1047528" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J1047528" s="49"/>
     </row>
@@ -33788,16 +33791,16 @@
         <v>9058</v>
       </c>
       <c r="F1047529" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1047529" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="G1047529" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="H1047529" s="18">
         <v>6.7699999999999996E-2</v>
       </c>
       <c r="I1047529" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J1047529" s="49"/>
     </row>
@@ -33806,10 +33809,10 @@
         <v>507</v>
       </c>
       <c r="F1047530" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1047530" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="G1047530" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="H1047530" s="18"/>
       <c r="I1047530" s="19"/>
@@ -33820,10 +33823,10 @@
         <v>1540</v>
       </c>
       <c r="F1047531" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1047531" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="G1047531" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="H1047531" s="18"/>
       <c r="I1047531" s="19"/>
@@ -33834,10 +33837,10 @@
         <v>1575</v>
       </c>
       <c r="F1047532" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G1047532" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H1047532" s="18"/>
       <c r="I1047532" s="19"/>
@@ -33848,10 +33851,10 @@
         <v>1608</v>
       </c>
       <c r="F1047533" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1047533" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="G1047533" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="H1047533" s="18"/>
       <c r="I1047533" s="19"/>
@@ -33862,16 +33865,16 @@
         <v>21055</v>
       </c>
       <c r="F1047534" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1047534" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="G1047534" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="H1047534" s="18">
         <v>0.28999999999999998</v>
       </c>
       <c r="I1047534" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J1047534" s="49"/>
     </row>
@@ -33880,16 +33883,16 @@
         <v>21142</v>
       </c>
       <c r="F1047535" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G1047535" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H1047535" s="18">
         <v>0.28999999999999998</v>
       </c>
       <c r="I1047535" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J1047535" s="49"/>
     </row>
@@ -33898,10 +33901,10 @@
         <v>1646</v>
       </c>
       <c r="F1047536" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1047536" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="G1047536" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="H1047536" s="18"/>
       <c r="I1047536" s="19"/>
@@ -33912,10 +33915,10 @@
         <v>185</v>
       </c>
       <c r="F1047537" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1047537" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="G1047537" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="H1047537" s="18"/>
       <c r="I1047537" s="19"/>
@@ -33926,16 +33929,16 @@
         <v>197</v>
       </c>
       <c r="F1047538" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G1047538" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H1047538" s="18">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="I1047538" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J1047538" s="49"/>
     </row>
@@ -33944,10 +33947,10 @@
         <v>409</v>
       </c>
       <c r="F1047539" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G1047539" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H1047539" s="18"/>
       <c r="I1047539" s="19"/>
@@ -33958,10 +33961,10 @@
         <v>513</v>
       </c>
       <c r="F1047540" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G1047540" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H1047540" s="18"/>
       <c r="I1047540" s="19"/>
@@ -33972,16 +33975,16 @@
         <v>9063</v>
       </c>
       <c r="F1047541" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G1047541" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H1047541" s="18">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="I1047541" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J1047541" s="49"/>
     </row>
@@ -33990,10 +33993,10 @@
         <v>9067</v>
       </c>
       <c r="F1047542" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1047542" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="G1047542" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="H1047542" s="18"/>
       <c r="I1047542" s="19"/>
@@ -34004,10 +34007,10 @@
         <v>9065</v>
       </c>
       <c r="F1047543" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1047543" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="G1047543" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="H1047543" s="18"/>
       <c r="I1047543" s="19"/>
@@ -34018,10 +34021,10 @@
         <v>98</v>
       </c>
       <c r="F1047544" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1047544" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="G1047544" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="H1047544" s="18"/>
       <c r="I1047544" s="19"/>
@@ -34032,10 +34035,10 @@
         <v>2</v>
       </c>
       <c r="F1047545" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G1047545" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H1047545" s="18"/>
       <c r="I1047545" s="19"/>
@@ -34046,10 +34049,10 @@
         <v>9072</v>
       </c>
       <c r="F1047546" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G1047546" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H1047546" s="18"/>
       <c r="I1047546" s="19"/>
@@ -34060,10 +34063,10 @@
         <v>7</v>
       </c>
       <c r="F1047547" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G1047547" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H1047547" s="18"/>
       <c r="I1047547" s="19"/>
@@ -34074,16 +34077,16 @@
         <v>9070</v>
       </c>
       <c r="F1047548" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G1047548" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H1047548" s="18">
         <v>6.7699999999999996E-2</v>
       </c>
       <c r="I1047548" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J1047548" s="49"/>
     </row>
@@ -34092,10 +34095,10 @@
         <v>6</v>
       </c>
       <c r="F1047549" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1047549" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="G1047549" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="H1047549" s="18"/>
       <c r="I1047549" s="19"/>
@@ -34106,10 +34109,10 @@
         <v>304</v>
       </c>
       <c r="F1047550" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1047550" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="G1047550" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="H1047550" s="18"/>
       <c r="I1047550" s="19"/>
@@ -34120,10 +34123,10 @@
         <v>1231</v>
       </c>
       <c r="F1047551" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G1047551" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H1047551" s="18"/>
       <c r="I1047551" s="19"/>
@@ -34134,10 +34137,10 @@
         <v>9059</v>
       </c>
       <c r="F1047552" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1047552" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="G1047552" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="H1047552" s="18"/>
       <c r="I1047552" s="19"/>
@@ -34148,10 +34151,10 @@
         <v>4</v>
       </c>
       <c r="F1047553" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G1047553" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H1047553" s="18"/>
       <c r="I1047553" s="19"/>
@@ -34162,10 +34165,10 @@
         <v>9037</v>
       </c>
       <c r="F1047554" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G1047554" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H1047554" s="18"/>
       <c r="I1047554" s="19"/>
@@ -34176,16 +34179,16 @@
         <v>1230</v>
       </c>
       <c r="F1047555" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1047555" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="G1047555" s="5" t="s">
-        <v>137</v>
       </c>
       <c r="H1047555" s="18">
         <v>6.7699999999999996E-2</v>
       </c>
       <c r="I1047555" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J1047555" s="49"/>
     </row>
@@ -34194,10 +34197,10 @@
         <v>108</v>
       </c>
       <c r="F1047556" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1047556" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="G1047556" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="H1047556" s="18"/>
       <c r="I1047556" s="19"/>
@@ -34208,10 +34211,10 @@
         <v>400</v>
       </c>
       <c r="F1047557" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G1047557" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H1047557" s="18"/>
       <c r="I1047557" s="19"/>
@@ -34222,10 +34225,10 @@
         <v>403</v>
       </c>
       <c r="F1047558" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G1047558" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H1047558" s="18"/>
       <c r="I1047558" s="19"/>
@@ -34236,10 +34239,10 @@
         <v>3265</v>
       </c>
       <c r="F1047559" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G1047559" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H1047559" s="18"/>
       <c r="I1047559" s="19"/>
@@ -34250,10 +34253,10 @@
         <v>1617</v>
       </c>
       <c r="F1047560" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G1047560" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H1047560" s="18"/>
       <c r="I1047560" s="19"/>
@@ -34264,16 +34267,16 @@
         <v>1546</v>
       </c>
       <c r="F1047561" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1047561" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="G1047561" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="H1047561" s="18">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="I1047561" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J1047561" s="49"/>
     </row>
@@ -34282,10 +34285,10 @@
         <v>290</v>
       </c>
       <c r="F1047562" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G1047562" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H1047562" s="18"/>
       <c r="I1047562" s="19"/>
@@ -34296,10 +34299,10 @@
         <v>9005</v>
       </c>
       <c r="F1047563" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G1047563" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H1047563" s="18"/>
       <c r="I1047563" s="19"/>
@@ -34310,10 +34313,10 @@
         <v>1593</v>
       </c>
       <c r="F1047564" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G1047564" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H1047564" s="18"/>
       <c r="I1047564" s="19"/>
@@ -34324,10 +34327,10 @@
         <v>3308</v>
       </c>
       <c r="F1047565" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G1047565" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H1047565" s="18"/>
       <c r="I1047565" s="19"/>
@@ -34338,10 +34341,10 @@
         <v>500</v>
       </c>
       <c r="F1047566" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G1047566" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H1047566" s="18"/>
       <c r="I1047566" s="19"/>
@@ -34352,16 +34355,16 @@
         <v>9061</v>
       </c>
       <c r="F1047567" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G1047567" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H1047567" s="18">
         <v>6.7699999999999996E-2</v>
       </c>
       <c r="I1047567" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J1047567" s="49"/>
     </row>
@@ -34370,10 +34373,10 @@
         <v>303</v>
       </c>
       <c r="F1047568" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G1047568" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H1047568" s="18"/>
       <c r="I1047568" s="19"/>
@@ -34384,10 +34387,10 @@
         <v>95</v>
       </c>
       <c r="F1047569" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G1047569" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H1047569" s="18"/>
       <c r="I1047569" s="19"/>
@@ -34398,10 +34401,10 @@
         <v>8</v>
       </c>
       <c r="F1047570" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G1047570" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H1047570" s="18"/>
       <c r="I1047570" s="19"/>
@@ -34412,10 +34415,10 @@
         <v>20509</v>
       </c>
       <c r="F1047571" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G1047571" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H1047571" s="18"/>
       <c r="I1047571" s="19"/>
@@ -34426,10 +34429,10 @@
         <v>20508</v>
       </c>
       <c r="F1047572" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G1047572" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H1047572" s="18"/>
       <c r="I1047572" s="19"/>
@@ -34440,10 +34443,10 @@
         <v>20525</v>
       </c>
       <c r="F1047573" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G1047573" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H1047573" s="18"/>
       <c r="I1047573" s="19"/>
@@ -34454,10 +34457,10 @@
         <v>20511</v>
       </c>
       <c r="F1047574" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G1047574" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H1047574" s="18"/>
       <c r="I1047574" s="19"/>
@@ -34468,10 +34471,10 @@
         <v>20521</v>
       </c>
       <c r="F1047575" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G1047575" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H1047575" s="18"/>
       <c r="I1047575" s="19"/>
@@ -34482,10 +34485,10 @@
         <v>501</v>
       </c>
       <c r="F1047576" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G1047576" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H1047576" s="18"/>
       <c r="I1047576" s="19"/>
@@ -34496,10 +34499,10 @@
         <v>90</v>
       </c>
       <c r="F1047577" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G1047577" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H1047577" s="18"/>
       <c r="I1047577" s="19"/>
@@ -34510,10 +34513,10 @@
         <v>106</v>
       </c>
       <c r="F1047578" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1047578" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="G1047578" s="5" t="s">
-        <v>163</v>
       </c>
       <c r="H1047578" s="18"/>
       <c r="I1047578" s="19"/>
@@ -34524,10 +34527,10 @@
         <v>91</v>
       </c>
       <c r="F1047579" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G1047579" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H1047579" s="18"/>
       <c r="I1047579" s="19"/>
@@ -34538,10 +34541,10 @@
         <v>275</v>
       </c>
       <c r="F1047580" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1047580" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="G1047580" s="5" t="s">
-        <v>166</v>
       </c>
       <c r="H1047580" s="18"/>
       <c r="I1047580" s="19"/>
@@ -34552,16 +34555,16 @@
         <v>9062</v>
       </c>
       <c r="F1047581" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1047581" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="G1047581" s="5" t="s">
-        <v>168</v>
       </c>
       <c r="H1047581" s="18">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="I1047581" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J1047581" s="49"/>
     </row>
@@ -34570,10 +34573,10 @@
         <v>159</v>
       </c>
       <c r="F1047582" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1047582" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="G1047582" s="5" t="s">
-        <v>170</v>
       </c>
       <c r="H1047582" s="18"/>
       <c r="I1047582" s="19"/>
@@ -34584,10 +34587,10 @@
         <v>99</v>
       </c>
       <c r="F1047583" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G1047583" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H1047583" s="18"/>
       <c r="I1047583" s="19"/>
@@ -34598,10 +34601,10 @@
         <v>133</v>
       </c>
       <c r="F1047584" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G1047584" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H1047584" s="18"/>
       <c r="I1047584" s="19"/>
@@ -34612,10 +34615,10 @@
         <v>266</v>
       </c>
       <c r="F1047585" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G1047585" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H1047585" s="18"/>
       <c r="I1047585" s="19"/>
@@ -34626,10 +34629,10 @@
         <v>38</v>
       </c>
       <c r="F1047586" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G1047586" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="G1047586" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="H1047586" s="18"/>
       <c r="I1047586" s="19"/>
@@ -34640,10 +34643,10 @@
         <v>9</v>
       </c>
       <c r="F1047587" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1047587" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="G1047587" s="5" t="s">
-        <v>177</v>
       </c>
       <c r="H1047587" s="18"/>
       <c r="I1047587" s="19"/>
@@ -34654,16 +34657,16 @@
         <v>16455</v>
       </c>
       <c r="F1047588" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G1047588" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="G1047588" s="5" t="s">
-        <v>179</v>
       </c>
       <c r="H1047588" s="18">
         <v>2.75E-2</v>
       </c>
       <c r="I1047588" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J1047588" s="49"/>
     </row>
@@ -34672,10 +34675,10 @@
         <v>312</v>
       </c>
       <c r="F1047589" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G1047589" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H1047589" s="18"/>
       <c r="I1047589" s="19"/>
@@ -34686,10 +34689,10 @@
         <v>12173</v>
       </c>
       <c r="F1047590" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1047590" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="G1047590" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="H1047590" s="18"/>
       <c r="I1047590" s="19"/>
@@ -34700,10 +34703,10 @@
         <v>1900</v>
       </c>
       <c r="F1047591" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1047591" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="G1047591" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="H1047591" s="18"/>
       <c r="I1047591" s="19"/>
@@ -34714,10 +34717,10 @@
         <v>54</v>
       </c>
       <c r="F1047592" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1047592" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="G1047592" s="5" t="s">
-        <v>186</v>
       </c>
       <c r="H1047592" s="18"/>
       <c r="I1047592" s="19"/>
@@ -34728,10 +34731,10 @@
         <v>20534</v>
       </c>
       <c r="F1047593" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G1047593" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H1047593" s="18"/>
       <c r="I1047593" s="19"/>
@@ -34742,16 +34745,16 @@
         <v>1017</v>
       </c>
       <c r="F1047594" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G1047594" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H1047594" s="18">
         <v>0.14000000000000001</v>
       </c>
       <c r="I1047594" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J1047594" s="49"/>
     </row>
@@ -34760,16 +34763,16 @@
         <v>9071</v>
       </c>
       <c r="F1047595" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G1047595" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H1047595" s="18">
         <v>6.7699999999999996E-2</v>
       </c>
       <c r="I1047595" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J1047595" s="49"/>
     </row>
@@ -34778,16 +34781,16 @@
         <v>9072</v>
       </c>
       <c r="F1047596" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G1047596" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H1047596" s="18">
         <v>6.7699999999999996E-2</v>
       </c>
       <c r="I1047596" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J1047596" s="49"/>
     </row>
@@ -34796,16 +34799,16 @@
         <v>16456</v>
       </c>
       <c r="F1047597" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G1047597" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H1047597" s="18">
         <v>2.75E-2</v>
       </c>
       <c r="I1047597" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J1047597" s="49"/>
     </row>
@@ -34814,10 +34817,10 @@
         <v>440</v>
       </c>
       <c r="F1047598" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G1047598" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H1047598" s="18"/>
       <c r="I1047598" s="19"/>
@@ -34828,10 +34831,10 @@
         <v>441</v>
       </c>
       <c r="F1047599" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G1047599" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H1047599" s="18"/>
       <c r="I1047599" s="19"/>
@@ -34842,10 +34845,10 @@
         <v>442</v>
       </c>
       <c r="F1047600" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1047600" s="5" t="s">
         <v>198</v>
-      </c>
-      <c r="G1047600" s="5" t="s">
-        <v>199</v>
       </c>
       <c r="H1047600" s="18"/>
       <c r="I1047600" s="19"/>
@@ -34856,16 +34859,16 @@
         <v>4</v>
       </c>
       <c r="F1047601" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G1047601" s="5" t="s">
         <v>200</v>
-      </c>
-      <c r="G1047601" s="5" t="s">
-        <v>201</v>
       </c>
       <c r="H1047601" s="18">
         <v>2.4E-2</v>
       </c>
       <c r="I1047601" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J1047601" s="49"/>
     </row>
@@ -34874,16 +34877,16 @@
         <v>9037</v>
       </c>
       <c r="F1047602" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G1047602" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H1047602" s="18">
         <v>6.7699999999999996E-2</v>
       </c>
       <c r="I1047602" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J1047602" s="49"/>
     </row>
@@ -34892,10 +34895,10 @@
         <v>1609</v>
       </c>
       <c r="F1047603" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G1047603" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H1047603" s="18"/>
       <c r="I1047603" s="19"/>
@@ -34906,10 +34909,10 @@
         <v>208</v>
       </c>
       <c r="F1047604" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1047604" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="G1047604" s="5" t="s">
-        <v>206</v>
       </c>
       <c r="H1047604" s="18"/>
       <c r="I1047604" s="19"/>
@@ -34920,10 +34923,10 @@
         <v>1805</v>
       </c>
       <c r="F1047605" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1047605" s="5" t="s">
         <v>207</v>
-      </c>
-      <c r="G1047605" s="5" t="s">
-        <v>208</v>
       </c>
       <c r="H1047605" s="18"/>
       <c r="I1047605" s="19"/>
@@ -34934,10 +34937,10 @@
         <v>520</v>
       </c>
       <c r="F1047606" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G1047606" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H1047606" s="18"/>
       <c r="I1047606" s="19"/>
@@ -34948,10 +34951,10 @@
         <v>521</v>
       </c>
       <c r="F1047607" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G1047607" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H1047607" s="18"/>
       <c r="I1047607" s="19"/>
@@ -34962,10 +34965,10 @@
         <v>522</v>
       </c>
       <c r="F1047608" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G1047608" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H1047608" s="18"/>
       <c r="I1047608" s="19"/>
@@ -34976,10 +34979,10 @@
         <v>523</v>
       </c>
       <c r="F1047609" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G1047609" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H1047609" s="18"/>
       <c r="I1047609" s="19"/>
@@ -34990,10 +34993,10 @@
         <v>101</v>
       </c>
       <c r="F1047610" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G1047610" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H1047610" s="18"/>
       <c r="I1047610" s="19"/>
@@ -35003,10 +35006,10 @@
         <v>102</v>
       </c>
       <c r="F1047611" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G1047611" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H1047611" s="18"/>
       <c r="I1047611" s="19"/>
@@ -35016,10 +35019,10 @@
         <v>526</v>
       </c>
       <c r="F1047612" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1047612" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="G1047612" s="5" t="s">
-        <v>218</v>
       </c>
       <c r="H1047612" s="18"/>
       <c r="I1047612" s="19"/>
@@ -35029,10 +35032,10 @@
         <v>524</v>
       </c>
       <c r="F1047613" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G1047613" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H1047613" s="18"/>
       <c r="I1047613" s="19"/>
@@ -35042,10 +35045,10 @@
         <v>515</v>
       </c>
       <c r="F1047614" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G1047614" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H1047614" s="22"/>
       <c r="I1047614" s="23"/>

--- a/Cargas Diarias/Cargas Diarias.xlsx
+++ b/Cargas Diarias/Cargas Diarias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puesto 17\Desktop\Github\Partes\Cargas Diarias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCDC78D-F7B5-4192-95B7-7032953689BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58D4881-6DA9-430A-9194-13D033B8654E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BCD83F86-A6AF-4FE0-AF75-50E1C7367F1C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="226">
   <si>
     <t xml:space="preserve">DIA  CARGA </t>
   </si>
@@ -713,6 +713,9 @@
   </si>
   <si>
     <t>AZUQUECA</t>
+  </si>
+  <si>
+    <t>ALCAMPO,SA</t>
   </si>
 </sst>
 </file>
@@ -46756,7 +46759,7 @@
         <v>6000</v>
       </c>
       <c r="F1047496" s="5" t="s">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="G1047496" s="5" t="s">
         <v>32</v>

--- a/Cargas Diarias/Cargas Diarias.xlsx
+++ b/Cargas Diarias/Cargas Diarias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puesto 17\Desktop\Github\Partes\Cargas Diarias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58D4881-6DA9-430A-9194-13D033B8654E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C327038E-3D05-49D3-ABA4-71B9B7214095}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BCD83F86-A6AF-4FE0-AF75-50E1C7367F1C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="224">
   <si>
     <t xml:space="preserve">DIA  CARGA </t>
   </si>
@@ -706,16 +706,10 @@
     <t>ALCAMPO FRESCO</t>
   </si>
   <si>
-    <t>TORREJON</t>
+    <t>ALCAMPO,SA</t>
   </si>
   <si>
-    <t>VILLANUEVA</t>
-  </si>
-  <si>
-    <t>AZUQUECA</t>
-  </si>
-  <si>
-    <t>ALCAMPO,SA</t>
+    <t>HIRVIENDO PROYECTO</t>
   </si>
 </sst>
 </file>
@@ -46759,7 +46753,7 @@
         <v>6000</v>
       </c>
       <c r="F1047496" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G1047496" s="5" t="s">
         <v>32</v>
@@ -47034,7 +47028,7 @@
         <v>72</v>
       </c>
       <c r="G1047509" s="5" t="s">
-        <v>196</v>
+        <v>61</v>
       </c>
       <c r="H1047509" s="18">
         <v>0.27039999999999997</v>
@@ -47052,7 +47046,7 @@
         <v>73</v>
       </c>
       <c r="G1047510" s="5" t="s">
-        <v>222</v>
+        <v>61</v>
       </c>
       <c r="H1047510" s="18">
         <v>0.27039999999999997</v>
@@ -47106,7 +47100,7 @@
         <v>77</v>
       </c>
       <c r="G1047513" s="5" t="s">
-        <v>223</v>
+        <v>78</v>
       </c>
       <c r="H1047513" s="18">
         <v>0.27039999999999997</v>
@@ -47160,43 +47154,43 @@
         <v>82</v>
       </c>
       <c r="G1047516" s="5" t="s">
-        <v>196</v>
+        <v>61</v>
       </c>
       <c r="H1047516" s="18">
-        <v>0.28999999999999998</v>
+        <v>0.27039999999999997</v>
       </c>
       <c r="I1047516" s="19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J1047516" s="49"/>
     </row>
     <row r="1047517" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047517" s="17">
-        <v>20494</v>
+        <v>20493</v>
       </c>
       <c r="F1047517" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G1047517" s="5" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="H1047517" s="18">
-        <v>0.28999999999999998</v>
+        <v>0.27039999999999997</v>
       </c>
       <c r="I1047517" s="19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J1047517" s="49"/>
     </row>
     <row r="1047518" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047518" s="17">
-        <v>20495</v>
+        <v>20494</v>
       </c>
       <c r="F1047518" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G1047518" s="5" t="s">
-        <v>224</v>
+        <v>75</v>
       </c>
       <c r="H1047518" s="18">
         <v>0.28999999999999998</v>
@@ -47208,13 +47202,13 @@
     </row>
     <row r="1047519" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047519" s="17">
-        <v>20498</v>
+        <v>20495</v>
       </c>
       <c r="F1047519" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G1047519" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H1047519" s="18">
         <v>0.28999999999999998</v>
@@ -47226,31 +47220,31 @@
     </row>
     <row r="1047520" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047520" s="17">
-        <v>408</v>
+        <v>20498</v>
       </c>
       <c r="F1047520" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G1047520" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H1047520" s="18">
-        <v>0.01</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I1047520" s="19" t="s">
-        <v>186</v>
+        <v>66</v>
       </c>
       <c r="J1047520" s="49"/>
     </row>
     <row r="1047521" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047521" s="17">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F1047521" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G1047521" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H1047521" s="18">
         <v>0.01</v>
@@ -47262,27 +47256,31 @@
     </row>
     <row r="1047522" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047522" s="17">
-        <v>206</v>
+        <v>406</v>
       </c>
       <c r="F1047522" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G1047522" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1047522" s="18"/>
-      <c r="I1047522" s="19"/>
+        <v>91</v>
+      </c>
+      <c r="H1047522" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="I1047522" s="19" t="s">
+        <v>186</v>
+      </c>
       <c r="J1047522" s="49"/>
     </row>
     <row r="1047523" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047523" s="17">
-        <v>127</v>
+        <v>206</v>
       </c>
       <c r="F1047523" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G1047523" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H1047523" s="18"/>
       <c r="I1047523" s="19"/>
@@ -47290,13 +47288,13 @@
     </row>
     <row r="1047524" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047524" s="17">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="F1047524" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G1047524" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H1047524" s="18"/>
       <c r="I1047524" s="19"/>
@@ -47304,13 +47302,13 @@
     </row>
     <row r="1047525" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047525" s="17">
-        <v>503</v>
+        <v>207</v>
       </c>
       <c r="F1047525" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G1047525" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H1047525" s="18"/>
       <c r="I1047525" s="19"/>
@@ -47318,13 +47316,13 @@
     </row>
     <row r="1047526" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047526" s="17">
-        <v>256</v>
+        <v>503</v>
       </c>
       <c r="F1047526" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G1047526" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H1047526" s="18"/>
       <c r="I1047526" s="19"/>
@@ -47332,25 +47330,21 @@
     </row>
     <row r="1047527" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047527" s="17">
-        <v>3</v>
+        <v>256</v>
       </c>
       <c r="F1047527" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G1047527" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1047527" s="18">
-        <v>3.85E-2</v>
-      </c>
-      <c r="I1047527" s="19" t="s">
-        <v>186</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="H1047527" s="18"/>
+      <c r="I1047527" s="19"/>
       <c r="J1047527" s="49"/>
     </row>
     <row r="1047528" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047528" s="17">
-        <v>9058</v>
+        <v>3</v>
       </c>
       <c r="F1047528" s="5" t="s">
         <v>100</v>
@@ -47359,7 +47353,7 @@
         <v>101</v>
       </c>
       <c r="H1047528" s="18">
-        <v>6.7699999999999996E-2</v>
+        <v>3.85E-2</v>
       </c>
       <c r="I1047528" s="19" t="s">
         <v>186</v>
@@ -47368,27 +47362,31 @@
     </row>
     <row r="1047529" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047529" s="17">
-        <v>507</v>
+        <v>9058</v>
       </c>
       <c r="F1047529" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G1047529" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1047529" s="18"/>
-      <c r="I1047529" s="19"/>
+        <v>101</v>
+      </c>
+      <c r="H1047529" s="18">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="I1047529" s="19" t="s">
+        <v>186</v>
+      </c>
       <c r="J1047529" s="49"/>
     </row>
     <row r="1047530" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047530" s="17">
-        <v>1540</v>
+        <v>507</v>
       </c>
       <c r="F1047530" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G1047530" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H1047530" s="18"/>
       <c r="I1047530" s="19"/>
@@ -47396,13 +47394,13 @@
     </row>
     <row r="1047531" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047531" s="17">
-        <v>1575</v>
+        <v>1540</v>
       </c>
       <c r="F1047531" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G1047531" s="5" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H1047531" s="18"/>
       <c r="I1047531" s="19"/>
@@ -47410,13 +47408,13 @@
     </row>
     <row r="1047532" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047532" s="17">
-        <v>1608</v>
+        <v>1575</v>
       </c>
       <c r="F1047532" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G1047532" s="5" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="H1047532" s="18"/>
       <c r="I1047532" s="19"/>
@@ -47424,28 +47422,24 @@
     </row>
     <row r="1047533" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047533" s="17">
-        <v>21055</v>
+        <v>1608</v>
       </c>
       <c r="F1047533" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G1047533" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="H1047533" s="18">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="I1047533" s="19" t="s">
-        <v>186</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="H1047533" s="18"/>
+      <c r="I1047533" s="19"/>
       <c r="J1047533" s="49"/>
     </row>
     <row r="1047534" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047534" s="17">
-        <v>21142</v>
+        <v>21055</v>
       </c>
       <c r="F1047534" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G1047534" s="5" t="s">
         <v>110</v>
@@ -47460,27 +47454,31 @@
     </row>
     <row r="1047535" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047535" s="17">
-        <v>1646</v>
+        <v>21142</v>
       </c>
       <c r="F1047535" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G1047535" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H1047535" s="18"/>
-      <c r="I1047535" s="19"/>
+        <v>110</v>
+      </c>
+      <c r="H1047535" s="18">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I1047535" s="19" t="s">
+        <v>186</v>
+      </c>
       <c r="J1047535" s="49"/>
     </row>
     <row r="1047536" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047536" s="17">
-        <v>185</v>
+        <v>1646</v>
       </c>
       <c r="F1047536" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G1047536" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H1047536" s="18"/>
       <c r="I1047536" s="19"/>
@@ -47488,45 +47486,45 @@
     </row>
     <row r="1047537" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047537" s="17">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="F1047537" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G1047537" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H1047537" s="18">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="I1047537" s="19" t="s">
-        <v>186</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="H1047537" s="18"/>
+      <c r="I1047537" s="19"/>
       <c r="J1047537" s="49"/>
     </row>
     <row r="1047538" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047538" s="17">
-        <v>409</v>
+        <v>197</v>
       </c>
       <c r="F1047538" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G1047538" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1047538" s="18"/>
-      <c r="I1047538" s="19"/>
+        <v>91</v>
+      </c>
+      <c r="H1047538" s="18">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I1047538" s="19" t="s">
+        <v>186</v>
+      </c>
       <c r="J1047538" s="49"/>
     </row>
     <row r="1047539" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047539" s="17">
-        <v>513</v>
+        <v>409</v>
       </c>
       <c r="F1047539" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G1047539" s="5" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H1047539" s="18"/>
       <c r="I1047539" s="19"/>
@@ -47534,45 +47532,45 @@
     </row>
     <row r="1047540" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047540" s="17">
-        <v>9063</v>
+        <v>513</v>
       </c>
       <c r="F1047540" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G1047540" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1047540" s="18">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="I1047540" s="19" t="s">
-        <v>186</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="H1047540" s="18"/>
+      <c r="I1047540" s="19"/>
       <c r="J1047540" s="49"/>
     </row>
     <row r="1047541" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047541" s="17">
-        <v>9067</v>
+        <v>9063</v>
       </c>
       <c r="F1047541" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G1047541" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1047541" s="18"/>
-      <c r="I1047541" s="19"/>
+        <v>58</v>
+      </c>
+      <c r="H1047541" s="18">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I1047541" s="19" t="s">
+        <v>186</v>
+      </c>
       <c r="J1047541" s="49"/>
     </row>
     <row r="1047542" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047542" s="17">
-        <v>9065</v>
+        <v>9067</v>
       </c>
       <c r="F1047542" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G1047542" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H1047542" s="18"/>
       <c r="I1047542" s="19"/>
@@ -47580,13 +47578,13 @@
     </row>
     <row r="1047543" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047543" s="17">
-        <v>98</v>
+        <v>9065</v>
       </c>
       <c r="F1047543" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G1047543" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H1047543" s="18"/>
       <c r="I1047543" s="19"/>
@@ -47594,13 +47592,13 @@
     </row>
     <row r="1047544" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047544" s="17">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="F1047544" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G1047544" s="5" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="H1047544" s="18"/>
       <c r="I1047544" s="19"/>
@@ -47608,7 +47606,7 @@
     </row>
     <row r="1047545" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047545" s="17">
-        <v>9072</v>
+        <v>2</v>
       </c>
       <c r="F1047545" s="5" t="s">
         <v>126</v>
@@ -47622,7 +47620,7 @@
     </row>
     <row r="1047546" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047546" s="17">
-        <v>7</v>
+        <v>9072</v>
       </c>
       <c r="F1047546" s="5" t="s">
         <v>126</v>
@@ -47636,7 +47634,7 @@
     </row>
     <row r="1047547" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047547" s="17">
-        <v>9070</v>
+        <v>7</v>
       </c>
       <c r="F1047547" s="5" t="s">
         <v>126</v>
@@ -47644,37 +47642,37 @@
       <c r="G1047547" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H1047547" s="18">
-        <v>6.7699999999999996E-2</v>
-      </c>
-      <c r="I1047547" s="19" t="s">
-        <v>186</v>
-      </c>
+      <c r="H1047547" s="18"/>
+      <c r="I1047547" s="19"/>
       <c r="J1047547" s="49"/>
     </row>
     <row r="1047548" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047548" s="17">
-        <v>6</v>
+        <v>9070</v>
       </c>
       <c r="F1047548" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G1047548" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H1047548" s="18"/>
-      <c r="I1047548" s="19"/>
+        <v>63</v>
+      </c>
+      <c r="H1047548" s="18">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="I1047548" s="19" t="s">
+        <v>186</v>
+      </c>
       <c r="J1047548" s="49"/>
     </row>
     <row r="1047549" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047549" s="17">
-        <v>304</v>
+        <v>6</v>
       </c>
       <c r="F1047549" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G1047549" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H1047549" s="18"/>
       <c r="I1047549" s="19"/>
@@ -47682,13 +47680,13 @@
     </row>
     <row r="1047550" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047550" s="17">
-        <v>1231</v>
+        <v>304</v>
       </c>
       <c r="F1047550" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G1047550" s="5" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="H1047550" s="18"/>
       <c r="I1047550" s="19"/>
@@ -47696,13 +47694,13 @@
     </row>
     <row r="1047551" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047551" s="17">
-        <v>9059</v>
+        <v>1231</v>
       </c>
       <c r="F1047551" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G1047551" s="5" t="s">
-        <v>133</v>
+        <v>49</v>
       </c>
       <c r="H1047551" s="18"/>
       <c r="I1047551" s="19"/>
@@ -47710,13 +47708,13 @@
     </row>
     <row r="1047552" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047552" s="17">
-        <v>4</v>
+        <v>9059</v>
       </c>
       <c r="F1047552" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G1047552" s="5" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="H1047552" s="18"/>
       <c r="I1047552" s="19"/>
@@ -47724,7 +47722,7 @@
     </row>
     <row r="1047553" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047553" s="17">
-        <v>9037</v>
+        <v>4</v>
       </c>
       <c r="F1047553" s="5" t="s">
         <v>134</v>
@@ -47738,45 +47736,45 @@
     </row>
     <row r="1047554" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047554" s="17">
-        <v>1230</v>
+        <v>9037</v>
       </c>
       <c r="F1047554" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G1047554" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="H1047554" s="18">
-        <v>6.7699999999999996E-2</v>
-      </c>
-      <c r="I1047554" s="19" t="s">
-        <v>186</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="H1047554" s="18"/>
+      <c r="I1047554" s="19"/>
       <c r="J1047554" s="49"/>
     </row>
     <row r="1047555" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047555" s="17">
-        <v>108</v>
+        <v>1230</v>
       </c>
       <c r="F1047555" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G1047555" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H1047555" s="18"/>
-      <c r="I1047555" s="19"/>
+        <v>136</v>
+      </c>
+      <c r="H1047555" s="18">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="I1047555" s="19" t="s">
+        <v>186</v>
+      </c>
       <c r="J1047555" s="49"/>
     </row>
     <row r="1047556" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047556" s="17">
-        <v>400</v>
+        <v>108</v>
       </c>
       <c r="F1047556" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G1047556" s="5" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="H1047556" s="18"/>
       <c r="I1047556" s="19"/>
@@ -47784,13 +47782,13 @@
     </row>
     <row r="1047557" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047557" s="17">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F1047557" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G1047557" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H1047557" s="18"/>
       <c r="I1047557" s="19"/>
@@ -47798,13 +47796,13 @@
     </row>
     <row r="1047558" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047558" s="17">
-        <v>3265</v>
+        <v>403</v>
       </c>
       <c r="F1047558" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G1047558" s="5" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="H1047558" s="18"/>
       <c r="I1047558" s="19"/>
@@ -47812,13 +47810,13 @@
     </row>
     <row r="1047559" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047559" s="17">
-        <v>1617</v>
+        <v>3265</v>
       </c>
       <c r="F1047559" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G1047559" s="5" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="H1047559" s="18"/>
       <c r="I1047559" s="19"/>
@@ -47826,45 +47824,45 @@
     </row>
     <row r="1047560" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047560" s="17">
-        <v>1546</v>
+        <v>1617</v>
       </c>
       <c r="F1047560" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G1047560" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="H1047560" s="18">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="I1047560" s="19" t="s">
-        <v>186</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="H1047560" s="18"/>
+      <c r="I1047560" s="19"/>
       <c r="J1047560" s="49"/>
     </row>
     <row r="1047561" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047561" s="17">
-        <v>290</v>
+        <v>1546</v>
       </c>
       <c r="F1047561" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G1047561" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1047561" s="18"/>
-      <c r="I1047561" s="19"/>
+        <v>144</v>
+      </c>
+      <c r="H1047561" s="18">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I1047561" s="19" t="s">
+        <v>186</v>
+      </c>
       <c r="J1047561" s="49"/>
     </row>
     <row r="1047562" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047562" s="17">
-        <v>9005</v>
+        <v>290</v>
       </c>
       <c r="F1047562" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G1047562" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H1047562" s="18"/>
       <c r="I1047562" s="19"/>
@@ -47872,13 +47870,13 @@
     </row>
     <row r="1047563" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047563" s="17">
-        <v>1593</v>
+        <v>9005</v>
       </c>
       <c r="F1047563" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G1047563" s="5" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="H1047563" s="18"/>
       <c r="I1047563" s="19"/>
@@ -47886,13 +47884,13 @@
     </row>
     <row r="1047564" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047564" s="17">
-        <v>3308</v>
+        <v>1593</v>
       </c>
       <c r="F1047564" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G1047564" s="5" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="H1047564" s="18"/>
       <c r="I1047564" s="19"/>
@@ -47900,13 +47898,13 @@
     </row>
     <row r="1047565" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047565" s="17">
-        <v>500</v>
+        <v>3308</v>
       </c>
       <c r="F1047565" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G1047565" s="5" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="H1047565" s="18"/>
       <c r="I1047565" s="19"/>
@@ -47914,45 +47912,45 @@
     </row>
     <row r="1047566" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047566" s="17">
-        <v>9061</v>
+        <v>500</v>
       </c>
       <c r="F1047566" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G1047566" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1047566" s="18">
-        <v>6.7699999999999996E-2</v>
-      </c>
-      <c r="I1047566" s="19" t="s">
-        <v>186</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="H1047566" s="18"/>
+      <c r="I1047566" s="19"/>
       <c r="J1047566" s="49"/>
     </row>
     <row r="1047567" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047567" s="17">
-        <v>303</v>
+        <v>9061</v>
       </c>
       <c r="F1047567" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G1047567" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1047567" s="18"/>
-      <c r="I1047567" s="19"/>
+        <v>75</v>
+      </c>
+      <c r="H1047567" s="18">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="I1047567" s="19" t="s">
+        <v>186</v>
+      </c>
       <c r="J1047567" s="49"/>
     </row>
     <row r="1047568" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047568" s="17">
-        <v>95</v>
+        <v>303</v>
       </c>
       <c r="F1047568" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G1047568" s="5" t="s">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="H1047568" s="18"/>
       <c r="I1047568" s="19"/>
@@ -47960,13 +47958,13 @@
     </row>
     <row r="1047569" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047569" s="17">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="F1047569" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G1047569" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H1047569" s="18"/>
       <c r="I1047569" s="19"/>
@@ -47974,13 +47972,13 @@
     </row>
     <row r="1047570" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047570" s="17">
-        <v>20509</v>
+        <v>8</v>
       </c>
       <c r="F1047570" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G1047570" s="5" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="H1047570" s="18"/>
       <c r="I1047570" s="19"/>
@@ -47988,13 +47986,13 @@
     </row>
     <row r="1047571" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047571" s="17">
-        <v>20508</v>
+        <v>20509</v>
       </c>
       <c r="F1047571" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G1047571" s="5" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="H1047571" s="18"/>
       <c r="I1047571" s="19"/>
@@ -48002,13 +48000,13 @@
     </row>
     <row r="1047572" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047572" s="17">
-        <v>20525</v>
+        <v>20508</v>
       </c>
       <c r="F1047572" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G1047572" s="5" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="H1047572" s="18"/>
       <c r="I1047572" s="19"/>
@@ -48016,13 +48014,13 @@
     </row>
     <row r="1047573" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047573" s="17">
-        <v>20511</v>
+        <v>20525</v>
       </c>
       <c r="F1047573" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G1047573" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H1047573" s="18"/>
       <c r="I1047573" s="19"/>
@@ -48030,13 +48028,13 @@
     </row>
     <row r="1047574" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047574" s="17">
-        <v>20521</v>
+        <v>20511</v>
       </c>
       <c r="F1047574" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G1047574" s="5" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="H1047574" s="18"/>
       <c r="I1047574" s="19"/>
@@ -48044,13 +48042,13 @@
     </row>
     <row r="1047575" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047575" s="17">
-        <v>501</v>
+        <v>20521</v>
       </c>
       <c r="F1047575" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G1047575" s="5" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="H1047575" s="18"/>
       <c r="I1047575" s="19"/>
@@ -48058,13 +48056,13 @@
     </row>
     <row r="1047576" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047576" s="17">
-        <v>90</v>
+        <v>501</v>
       </c>
       <c r="F1047576" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G1047576" s="5" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="H1047576" s="18"/>
       <c r="I1047576" s="19"/>
@@ -48072,13 +48070,13 @@
     </row>
     <row r="1047577" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047577" s="17">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="F1047577" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G1047577" s="5" t="s">
-        <v>162</v>
+        <v>58</v>
       </c>
       <c r="H1047577" s="18"/>
       <c r="I1047577" s="19"/>
@@ -48086,13 +48084,13 @@
     </row>
     <row r="1047578" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047578" s="17">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="F1047578" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G1047578" s="5" t="s">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="H1047578" s="18"/>
       <c r="I1047578" s="19"/>
@@ -48100,13 +48098,13 @@
     </row>
     <row r="1047579" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047579" s="17">
-        <v>275</v>
+        <v>91</v>
       </c>
       <c r="F1047579" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G1047579" s="5" t="s">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="H1047579" s="18"/>
       <c r="I1047579" s="19"/>
@@ -48114,45 +48112,45 @@
     </row>
     <row r="1047580" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047580" s="17">
-        <v>9062</v>
+        <v>275</v>
       </c>
       <c r="F1047580" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G1047580" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="H1047580" s="18">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="I1047580" s="19" t="s">
-        <v>186</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="H1047580" s="18"/>
+      <c r="I1047580" s="19"/>
       <c r="J1047580" s="49"/>
     </row>
     <row r="1047581" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047581" s="17">
-        <v>159</v>
+        <v>9062</v>
       </c>
       <c r="F1047581" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G1047581" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="H1047581" s="18"/>
-      <c r="I1047581" s="19"/>
+        <v>167</v>
+      </c>
+      <c r="H1047581" s="18">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I1047581" s="19" t="s">
+        <v>186</v>
+      </c>
       <c r="J1047581" s="49"/>
     </row>
     <row r="1047582" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047582" s="17">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="F1047582" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G1047582" s="5" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="H1047582" s="18"/>
       <c r="I1047582" s="19"/>
@@ -48160,13 +48158,13 @@
     </row>
     <row r="1047583" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047583" s="17">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="F1047583" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G1047583" s="5" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="H1047583" s="18"/>
       <c r="I1047583" s="19"/>
@@ -48174,13 +48172,13 @@
     </row>
     <row r="1047584" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047584" s="17">
-        <v>266</v>
+        <v>133</v>
       </c>
       <c r="F1047584" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G1047584" s="5" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="H1047584" s="18"/>
       <c r="I1047584" s="19"/>
@@ -48188,13 +48186,13 @@
     </row>
     <row r="1047585" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047585" s="17">
-        <v>38</v>
+        <v>266</v>
       </c>
       <c r="F1047585" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G1047585" s="5" t="s">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c r="H1047585" s="18"/>
       <c r="I1047585" s="19"/>
@@ -48202,13 +48200,13 @@
     </row>
     <row r="1047586" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047586" s="17">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="F1047586" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G1047586" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H1047586" s="18"/>
       <c r="I1047586" s="19"/>
@@ -48216,45 +48214,45 @@
     </row>
     <row r="1047587" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047587" s="17">
-        <v>16455</v>
+        <v>9</v>
       </c>
       <c r="F1047587" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G1047587" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="H1047587" s="18">
-        <v>2.75E-2</v>
-      </c>
-      <c r="I1047587" s="19" t="s">
-        <v>186</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="H1047587" s="18"/>
+      <c r="I1047587" s="19"/>
       <c r="J1047587" s="49"/>
     </row>
     <row r="1047588" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047588" s="17">
-        <v>312</v>
+        <v>16455</v>
       </c>
       <c r="F1047588" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G1047588" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="H1047588" s="18"/>
-      <c r="I1047588" s="19"/>
+        <v>178</v>
+      </c>
+      <c r="H1047588" s="18">
+        <v>2.75E-2</v>
+      </c>
+      <c r="I1047588" s="19" t="s">
+        <v>186</v>
+      </c>
       <c r="J1047588" s="49"/>
     </row>
     <row r="1047589" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047589" s="17">
-        <v>12173</v>
+        <v>312</v>
       </c>
       <c r="F1047589" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G1047589" s="5" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="H1047589" s="18"/>
       <c r="I1047589" s="19"/>
@@ -48262,13 +48260,13 @@
     </row>
     <row r="1047590" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047590" s="17">
-        <v>1900</v>
+        <v>12173</v>
       </c>
       <c r="F1047590" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G1047590" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H1047590" s="18"/>
       <c r="I1047590" s="19"/>
@@ -48276,13 +48274,13 @@
     </row>
     <row r="1047591" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047591" s="17">
-        <v>54</v>
+        <v>1900</v>
       </c>
       <c r="F1047591" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G1047591" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H1047591" s="18"/>
       <c r="I1047591" s="19"/>
@@ -48290,13 +48288,13 @@
     </row>
     <row r="1047592" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047592" s="17">
-        <v>20534</v>
+        <v>54</v>
       </c>
       <c r="F1047592" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G1047592" s="5" t="s">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="H1047592" s="18"/>
       <c r="I1047592" s="19"/>
@@ -48304,34 +48302,30 @@
     </row>
     <row r="1047593" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047593" s="17">
-        <v>1017</v>
+        <v>20534</v>
       </c>
       <c r="F1047593" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G1047593" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1047593" s="18">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I1047593" s="19" t="s">
-        <v>186</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="H1047593" s="18"/>
+      <c r="I1047593" s="19"/>
       <c r="J1047593" s="49"/>
     </row>
     <row r="1047594" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047594" s="17">
-        <v>9071</v>
+        <v>1017</v>
       </c>
       <c r="F1047594" s="5" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G1047594" s="5" t="s">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="H1047594" s="18">
-        <v>6.7699999999999996E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I1047594" s="19" t="s">
         <v>186</v>
@@ -48340,16 +48334,16 @@
     </row>
     <row r="1047595" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047595" s="17">
-        <v>9072</v>
+        <v>9071</v>
       </c>
       <c r="F1047595" s="5" t="s">
         <v>195</v>
       </c>
       <c r="G1047595" s="5" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="H1047595" s="18">
-        <v>6.7699999999999996E-2</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="I1047595" s="19" t="s">
         <v>186</v>
@@ -48358,16 +48352,16 @@
     </row>
     <row r="1047596" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047596" s="17">
-        <v>16456</v>
+        <v>9072</v>
       </c>
       <c r="F1047596" s="5" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="G1047596" s="5" t="s">
-        <v>196</v>
+        <v>63</v>
       </c>
       <c r="H1047596" s="18">
-        <v>2.75E-2</v>
+        <v>6.7699999999999996E-2</v>
       </c>
       <c r="I1047596" s="19" t="s">
         <v>186</v>
@@ -48376,27 +48370,31 @@
     </row>
     <row r="1047597" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047597" s="17">
-        <v>440</v>
+        <v>16456</v>
       </c>
       <c r="F1047597" s="5" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="G1047597" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1047597" s="18"/>
-      <c r="I1047597" s="19"/>
+        <v>196</v>
+      </c>
+      <c r="H1047597" s="18">
+        <v>2.75E-2</v>
+      </c>
+      <c r="I1047597" s="19" t="s">
+        <v>186</v>
+      </c>
       <c r="J1047597" s="49"/>
     </row>
     <row r="1047598" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047598" s="17">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F1047598" s="5" t="s">
         <v>197</v>
       </c>
       <c r="G1047598" s="5" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="H1047598" s="18"/>
       <c r="I1047598" s="19"/>
@@ -48404,13 +48402,13 @@
     </row>
     <row r="1047599" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047599" s="17">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F1047599" s="5" t="s">
         <v>197</v>
       </c>
       <c r="G1047599" s="5" t="s">
-        <v>198</v>
+        <v>49</v>
       </c>
       <c r="H1047599" s="18"/>
       <c r="I1047599" s="19"/>
@@ -48418,34 +48416,30 @@
     </row>
     <row r="1047600" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047600" s="17">
-        <v>4</v>
+        <v>442</v>
       </c>
       <c r="F1047600" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G1047600" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="H1047600" s="18">
-        <v>2.4E-2</v>
-      </c>
-      <c r="I1047600" s="19" t="s">
-        <v>186</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="H1047600" s="18"/>
+      <c r="I1047600" s="19"/>
       <c r="J1047600" s="49"/>
     </row>
     <row r="1047601" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047601" s="17">
-        <v>9037</v>
+        <v>4</v>
       </c>
       <c r="F1047601" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G1047601" s="5" t="s">
         <v>200</v>
       </c>
       <c r="H1047601" s="18">
-        <v>6.7699999999999996E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="I1047601" s="19" t="s">
         <v>186</v>
@@ -48454,27 +48448,31 @@
     </row>
     <row r="1047602" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047602" s="17">
-        <v>1609</v>
+        <v>9037</v>
       </c>
       <c r="F1047602" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G1047602" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H1047602" s="18"/>
-      <c r="I1047602" s="19"/>
+        <v>200</v>
+      </c>
+      <c r="H1047602" s="18">
+        <v>6.7699999999999996E-2</v>
+      </c>
+      <c r="I1047602" s="19" t="s">
+        <v>186</v>
+      </c>
       <c r="J1047602" s="49"/>
     </row>
     <row r="1047603" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047603" s="17">
-        <v>208</v>
+        <v>1609</v>
       </c>
       <c r="F1047603" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G1047603" s="5" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="H1047603" s="18"/>
       <c r="I1047603" s="19"/>
@@ -48482,13 +48480,13 @@
     </row>
     <row r="1047604" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047604" s="17">
-        <v>1805</v>
+        <v>208</v>
       </c>
       <c r="F1047604" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G1047604" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H1047604" s="18"/>
       <c r="I1047604" s="19"/>
@@ -48496,13 +48494,13 @@
     </row>
     <row r="1047605" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047605" s="17">
-        <v>520</v>
+        <v>1805</v>
       </c>
       <c r="F1047605" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G1047605" s="5" t="s">
-        <v>91</v>
+        <v>207</v>
       </c>
       <c r="H1047605" s="18"/>
       <c r="I1047605" s="19"/>
@@ -48510,13 +48508,13 @@
     </row>
     <row r="1047606" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047606" s="17">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F1047606" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G1047606" s="5" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="H1047606" s="18"/>
       <c r="I1047606" s="19"/>
@@ -48524,13 +48522,13 @@
     </row>
     <row r="1047607" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047607" s="17">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F1047607" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G1047607" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H1047607" s="18"/>
       <c r="I1047607" s="19"/>
@@ -48538,13 +48536,13 @@
     </row>
     <row r="1047608" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047608" s="17">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F1047608" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G1047608" s="5" t="s">
-        <v>200</v>
+        <v>63</v>
       </c>
       <c r="H1047608" s="18"/>
       <c r="I1047608" s="19"/>
@@ -48552,13 +48550,13 @@
     </row>
     <row r="1047609" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047609" s="17">
-        <v>101</v>
+        <v>523</v>
       </c>
       <c r="F1047609" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G1047609" s="5" t="s">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="H1047609" s="18"/>
       <c r="I1047609" s="19"/>
@@ -48566,61 +48564,81 @@
     </row>
     <row r="1047610" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047610" s="17">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F1047610" s="5" t="s">
         <v>214</v>
       </c>
       <c r="G1047610" s="5" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="H1047610" s="18"/>
       <c r="I1047610" s="19"/>
     </row>
     <row r="1047611" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047611" s="17">
-        <v>526</v>
+        <v>102</v>
       </c>
       <c r="F1047611" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G1047611" s="5" t="s">
-        <v>217</v>
+        <v>93</v>
       </c>
       <c r="H1047611" s="18"/>
       <c r="I1047611" s="19"/>
     </row>
     <row r="1047612" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1047612" s="17">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="F1047612" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G1047612" s="5" t="s">
-        <v>101</v>
+        <v>217</v>
       </c>
       <c r="H1047612" s="18"/>
       <c r="I1047612" s="19"/>
     </row>
-    <row r="1047613" spans="5:10" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1047613" s="20">
+    <row r="1047613" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1047613" s="17">
+        <v>524</v>
+      </c>
+      <c r="F1047613" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G1047613" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1047613" s="18"/>
+      <c r="I1047613" s="19"/>
+    </row>
+    <row r="1047614" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1047614" s="17">
         <v>515</v>
       </c>
-      <c r="F1047613" s="21" t="s">
+      <c r="F1047614" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="G1047613" s="21" t="s">
+      <c r="G1047614" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="H1047613" s="22"/>
-      <c r="I1047613" s="23"/>
-    </row>
-    <row r="1047614" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H1047614" s="24"/>
-    </row>
-    <row r="1047615" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H1047615" s="24"/>
+      <c r="H1047614" s="18"/>
+      <c r="I1047614" s="19"/>
+    </row>
+    <row r="1047615" spans="5:10" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1047615" s="20">
+        <v>517</v>
+      </c>
+      <c r="F1047615" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="G1047615" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1047615" s="22"/>
+      <c r="I1047615" s="23"/>
     </row>
     <row r="1047616" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1047616" s="24"/>

--- a/Cargas Diarias/Cargas Diarias.xlsx
+++ b/Cargas Diarias/Cargas Diarias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puesto 17\Desktop\Github\Partes\Cargas Diarias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDC2E7C-4E78-4587-A364-ED17C50EDE41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233FDBBB-524F-40D0-8DA4-5528435487E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BCD83F86-A6AF-4FE0-AF75-50E1C7367F1C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="230">
   <si>
     <t xml:space="preserve">DIA  CARGA </t>
   </si>
@@ -48002,8 +48002,12 @@
       <c r="G1047571" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H1047571" s="15"/>
-      <c r="I1047571" s="16"/>
+      <c r="H1047571" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="I1047571" s="16" t="s">
+        <v>186</v>
+      </c>
       <c r="J1047571" s="42"/>
     </row>
     <row r="1047572" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -48016,8 +48020,12 @@
       <c r="G1047572" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H1047572" s="15"/>
-      <c r="I1047572" s="16"/>
+      <c r="H1047572" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="I1047572" s="16" t="s">
+        <v>186</v>
+      </c>
       <c r="J1047572" s="42"/>
     </row>
     <row r="1047573" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -48030,8 +48038,12 @@
       <c r="G1047573" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H1047573" s="15"/>
-      <c r="I1047573" s="16"/>
+      <c r="H1047573" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="I1047573" s="16" t="s">
+        <v>186</v>
+      </c>
       <c r="J1047573" s="42"/>
     </row>
     <row r="1047574" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -48044,8 +48056,12 @@
       <c r="G1047574" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H1047574" s="15"/>
-      <c r="I1047574" s="16"/>
+      <c r="H1047574" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="I1047574" s="16" t="s">
+        <v>186</v>
+      </c>
       <c r="J1047574" s="42"/>
     </row>
     <row r="1047575" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -48058,8 +48074,12 @@
       <c r="G1047575" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H1047575" s="15"/>
-      <c r="I1047575" s="16"/>
+      <c r="H1047575" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="I1047575" s="16" t="s">
+        <v>186</v>
+      </c>
       <c r="J1047575" s="42"/>
     </row>
     <row r="1047576" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -48318,8 +48338,12 @@
       <c r="G1047593" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H1047593" s="15"/>
-      <c r="I1047593" s="16"/>
+      <c r="H1047593" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="I1047593" s="16" t="s">
+        <v>186</v>
+      </c>
       <c r="J1047593" s="42"/>
     </row>
     <row r="1047594" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/Cargas Diarias/Cargas Diarias.xlsx
+++ b/Cargas Diarias/Cargas Diarias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puesto 17\Desktop\Github\Partes\Cargas Diarias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C9E199-840A-40B6-9F33-69C9ED327B21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663163BB-1220-478C-967C-F8864D1F141B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BCD83F86-A6AF-4FE0-AF75-50E1C7367F1C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="240">
   <si>
     <t xml:space="preserve">DIA  CARGA </t>
   </si>
@@ -752,6 +752,12 @@
   </si>
   <si>
     <t>ALIMENTACION MENTEVERA</t>
+  </si>
+  <si>
+    <t>MAKRO  DISTRIBUCCION  MAYORISTA</t>
+  </si>
+  <si>
+    <t>GRUPO DOLCE GOLOSI</t>
   </si>
 </sst>
 </file>
@@ -51950,29 +51956,53 @@
         <v>232</v>
       </c>
     </row>
-    <row r="1047624" spans="5:10" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1047624" s="13">
+    <row r="1047624" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1047624" s="10">
         <v>534</v>
       </c>
-      <c r="F1047624" s="14" t="s">
+      <c r="F1047624" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="G1047624" s="14" t="s">
+      <c r="G1047624" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="H1047624" s="35"/>
-      <c r="I1047624" s="35"/>
-      <c r="J1047624" s="15" t="s">
+      <c r="H1047624" s="11"/>
+      <c r="I1047624" s="11"/>
+      <c r="J1047624" s="12" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="1047625" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H1047625" s="16"/>
-      <c r="I1047625" s="16"/>
-    </row>
-    <row r="1047626" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H1047626" s="16"/>
-      <c r="I1047626" s="16"/>
+      <c r="E1047625" s="10">
+        <v>1004</v>
+      </c>
+      <c r="F1047625" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G1047625" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1047625" s="11"/>
+      <c r="I1047625" s="11"/>
+      <c r="J1047625" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="1047626" spans="5:10" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1047626" s="13">
+        <v>535</v>
+      </c>
+      <c r="F1047626" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="G1047626" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1047626" s="35"/>
+      <c r="I1047626" s="35"/>
+      <c r="J1047626" s="15" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="1047627" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1047627" s="16"/>

--- a/Cargas Diarias/Cargas Diarias.xlsx
+++ b/Cargas Diarias/Cargas Diarias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puesto 17\Desktop\Github\Partes\Cargas Diarias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9FFD37-A177-4208-A1B9-553F518EFF74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A432D91F-EAAB-4B0B-ABB9-ED492E9D4678}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BCD83F86-A6AF-4FE0-AF75-50E1C7367F1C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="243">
   <si>
     <t xml:space="preserve">DIA  CARGA </t>
   </si>
@@ -761,6 +761,12 @@
   </si>
   <si>
     <t>IVAN</t>
+  </si>
+  <si>
+    <t>ARTESANOS DE LA LUISIANA,S.L.</t>
+  </si>
+  <si>
+    <t>ALCAMPO,SA (VILLANUBLA)</t>
   </si>
 </sst>
 </file>
@@ -1715,9 +1721,9 @@
   <dimension ref="A1:Y1048563"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1047620" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="F1047630" sqref="F1047630"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -52065,29 +52071,57 @@
         <v>232</v>
       </c>
     </row>
-    <row r="1047626" spans="5:10" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1047626" s="13">
+    <row r="1047626" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1047626" s="10">
         <v>535</v>
       </c>
-      <c r="F1047626" s="14" t="s">
+      <c r="F1047626" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="G1047626" s="14" t="s">
+      <c r="G1047626" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H1047626" s="34"/>
-      <c r="I1047626" s="34"/>
-      <c r="J1047626" s="15" t="s">
+      <c r="H1047626" s="11"/>
+      <c r="I1047626" s="11"/>
+      <c r="J1047626" s="12" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="1047627" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H1047627" s="16"/>
-      <c r="I1047627" s="16"/>
-    </row>
-    <row r="1047628" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H1047628" s="16"/>
-      <c r="I1047628" s="16"/>
+      <c r="E1047627" s="10">
+        <v>807</v>
+      </c>
+      <c r="F1047627" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G1047627" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1047627" s="11"/>
+      <c r="I1047627" s="11"/>
+      <c r="J1047627" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="1047628" spans="5:10" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1047628" s="13">
+        <v>6009</v>
+      </c>
+      <c r="F1047628" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="G1047628" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1047628" s="34">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="I1047628" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="J1047628" s="15" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="1047629" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1047629" s="16"/>

--- a/Cargas Diarias/Cargas Diarias.xlsx
+++ b/Cargas Diarias/Cargas Diarias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puesto 17\Desktop\Github\Partes\Cargas Diarias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A432D91F-EAAB-4B0B-ABB9-ED492E9D4678}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AD715D-D9EB-4525-B51F-FBFEF2C211F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BCD83F86-A6AF-4FE0-AF75-50E1C7367F1C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="244">
   <si>
     <t xml:space="preserve">DIA  CARGA </t>
   </si>
@@ -767,6 +767,9 @@
   </si>
   <si>
     <t>ALCAMPO,SA (VILLANUBLA)</t>
+  </si>
+  <si>
+    <t>FRANCISCO BERMUDO BEJARANO</t>
   </si>
 </sst>
 </file>
@@ -1723,7 +1726,7 @@
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1047620" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F1047630" sqref="F1047630"/>
+      <selection pane="bottomLeft" activeCell="E1047631" sqref="E1047631"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -52103,29 +52106,41 @@
         <v>232</v>
       </c>
     </row>
-    <row r="1047628" spans="5:10" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1047628" s="13">
+    <row r="1047628" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1047628" s="10">
         <v>6009</v>
       </c>
-      <c r="F1047628" s="14" t="s">
+      <c r="F1047628" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="G1047628" s="14" t="s">
+      <c r="G1047628" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H1047628" s="34">
+      <c r="H1047628" s="11">
         <v>0.26500000000000001</v>
       </c>
-      <c r="I1047628" s="34" t="s">
+      <c r="I1047628" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="J1047628" s="15" t="s">
+      <c r="J1047628" s="12" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="1047629" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H1047629" s="16"/>
-      <c r="I1047629" s="16"/>
+    <row r="1047629" spans="5:10" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1047629" s="13">
+        <v>809</v>
+      </c>
+      <c r="F1047629" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="G1047629" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1047629" s="34"/>
+      <c r="I1047629" s="34"/>
+      <c r="J1047629" s="15" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="1047630" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1047630" s="16"/>

--- a/Cargas Diarias/Cargas Diarias.xlsx
+++ b/Cargas Diarias/Cargas Diarias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puesto 17\Desktop\Github\Partes\Cargas Diarias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AD715D-D9EB-4525-B51F-FBFEF2C211F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3F9524-AFBB-4A4F-99DC-44D9A1F9F25E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BCD83F86-A6AF-4FE0-AF75-50E1C7367F1C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="246">
   <si>
     <t xml:space="preserve">DIA  CARGA </t>
   </si>
@@ -770,6 +770,12 @@
   </si>
   <si>
     <t>FRANCISCO BERMUDO BEJARANO</t>
+  </si>
+  <si>
+    <t>MAKRO</t>
+  </si>
+  <si>
+    <t>MAKRO DELIVERY</t>
   </si>
 </sst>
 </file>
@@ -1724,9 +1730,9 @@
   <dimension ref="A1:Y1048563"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1047620" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E1047631" sqref="E1047631"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -52126,29 +52132,53 @@
         <v>221</v>
       </c>
     </row>
-    <row r="1047629" spans="5:10" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1047629" s="13">
+    <row r="1047629" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1047629" s="10">
         <v>809</v>
       </c>
-      <c r="F1047629" s="14" t="s">
+      <c r="F1047629" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="G1047629" s="14" t="s">
+      <c r="G1047629" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="H1047629" s="34"/>
-      <c r="I1047629" s="34"/>
-      <c r="J1047629" s="15" t="s">
+      <c r="H1047629" s="11"/>
+      <c r="I1047629" s="11"/>
+      <c r="J1047629" s="12" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="1047630" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H1047630" s="16"/>
-      <c r="I1047630" s="16"/>
-    </row>
-    <row r="1047631" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H1047631" s="16"/>
-      <c r="I1047631" s="16"/>
+      <c r="E1047630" s="10">
+        <v>1008</v>
+      </c>
+      <c r="F1047630" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="G1047630" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1047630" s="11"/>
+      <c r="I1047630" s="11"/>
+      <c r="J1047630" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="1047631" spans="5:10" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1047631" s="13">
+        <v>1012</v>
+      </c>
+      <c r="F1047631" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="G1047631" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1047631" s="34"/>
+      <c r="I1047631" s="34"/>
+      <c r="J1047631" s="15" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="1047632" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1047632" s="16"/>

--- a/Cargas Diarias/Cargas Diarias.xlsx
+++ b/Cargas Diarias/Cargas Diarias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puesto 17\Desktop\Github\Partes\Cargas Diarias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3F9524-AFBB-4A4F-99DC-44D9A1F9F25E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEB0EA0-3689-4ECC-ADB7-639ED7727E62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BCD83F86-A6AF-4FE0-AF75-50E1C7367F1C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="247">
   <si>
     <t xml:space="preserve">DIA  CARGA </t>
   </si>
@@ -776,6 +776,9 @@
   </si>
   <si>
     <t>MAKRO DELIVERY</t>
+  </si>
+  <si>
+    <t>ALCAMPO ALCALA</t>
   </si>
 </sst>
 </file>
@@ -52164,25 +52167,39 @@
         <v>232</v>
       </c>
     </row>
-    <row r="1047631" spans="5:10" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1047631" s="13">
+    <row r="1047631" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1047631" s="10">
         <v>1012</v>
       </c>
-      <c r="F1047631" s="14" t="s">
+      <c r="F1047631" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="G1047631" s="14" t="s">
+      <c r="G1047631" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="H1047631" s="34"/>
-      <c r="I1047631" s="34"/>
-      <c r="J1047631" s="15" t="s">
+      <c r="H1047631" s="11"/>
+      <c r="I1047631" s="11"/>
+      <c r="J1047631" s="12" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="1047632" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H1047632" s="16"/>
-      <c r="I1047632" s="16"/>
+    <row r="1047632" spans="5:10" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1047632" s="13">
+        <v>6003</v>
+      </c>
+      <c r="F1047632" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="G1047632" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1047632" s="34"/>
+      <c r="I1047632" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="J1047632" s="15" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="1047633" spans="8:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1047633" s="16"/>

--- a/Cargas Diarias/Cargas Diarias.xlsx
+++ b/Cargas Diarias/Cargas Diarias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puesto 17\Desktop\Github\Partes\Cargas Diarias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEB0EA0-3689-4ECC-ADB7-639ED7727E62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5330F837-B822-4AE0-B74A-EC70B47A3EA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BCD83F86-A6AF-4FE0-AF75-50E1C7367F1C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="249">
   <si>
     <t xml:space="preserve">DIA  CARGA </t>
   </si>
@@ -779,6 +779,12 @@
   </si>
   <si>
     <t>ALCAMPO ALCALA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRANJA MARIPEPA,S.L. </t>
+  </si>
+  <si>
+    <t>FRANCISCO JIMENEZ CORRALES</t>
   </si>
 </sst>
 </file>
@@ -52183,85 +52189,109 @@
         <v>232</v>
       </c>
     </row>
-    <row r="1047632" spans="5:10" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1047632" s="13">
+    <row r="1047632" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1047632" s="10">
         <v>6003</v>
       </c>
-      <c r="F1047632" s="14" t="s">
+      <c r="F1047632" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="G1047632" s="14" t="s">
+      <c r="G1047632" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H1047632" s="34"/>
-      <c r="I1047632" s="34" t="s">
+      <c r="H1047632" s="11"/>
+      <c r="I1047632" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="J1047632" s="15" t="s">
+      <c r="J1047632" s="12" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="1047633" spans="8:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H1047633" s="16"/>
-      <c r="I1047633" s="16"/>
-    </row>
-    <row r="1047634" spans="8:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H1047634" s="16"/>
-      <c r="I1047634" s="16"/>
-    </row>
-    <row r="1047635" spans="8:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1047633" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1047633" s="10">
+        <v>537</v>
+      </c>
+      <c r="F1047633" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G1047633" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1047633" s="11"/>
+      <c r="I1047633" s="11"/>
+      <c r="J1047633" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="1047634" spans="5:10" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1047634" s="13">
+        <v>538</v>
+      </c>
+      <c r="F1047634" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="G1047634" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1047634" s="34"/>
+      <c r="I1047634" s="34"/>
+      <c r="J1047634" s="15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="1047635" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1047635" s="16"/>
       <c r="I1047635" s="16"/>
     </row>
-    <row r="1047636" spans="8:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1047636" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1047636" s="16"/>
       <c r="I1047636" s="16"/>
     </row>
-    <row r="1047637" spans="8:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1047637" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1047637" s="16"/>
       <c r="I1047637" s="16"/>
     </row>
-    <row r="1047638" spans="8:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1047638" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1047638" s="16"/>
       <c r="I1047638" s="16"/>
     </row>
-    <row r="1047639" spans="8:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1047639" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1047639" s="16"/>
       <c r="I1047639" s="16"/>
     </row>
-    <row r="1047640" spans="8:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1047640" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1047640" s="16"/>
       <c r="I1047640" s="16"/>
     </row>
-    <row r="1047641" spans="8:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1047641" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1047641" s="16"/>
       <c r="I1047641" s="16"/>
     </row>
-    <row r="1047642" spans="8:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1047642" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1047642" s="16"/>
       <c r="I1047642" s="16"/>
     </row>
-    <row r="1047643" spans="8:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1047643" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1047643" s="16"/>
       <c r="I1047643" s="16"/>
     </row>
-    <row r="1047644" spans="8:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1047644" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1047644" s="16"/>
       <c r="I1047644" s="16"/>
     </row>
-    <row r="1047645" spans="8:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1047645" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1047645" s="16"/>
       <c r="I1047645" s="16"/>
     </row>
-    <row r="1047646" spans="8:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1047646" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1047646" s="16"/>
       <c r="I1047646" s="16"/>
     </row>
-    <row r="1047647" spans="8:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1047647" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1047647" s="16"/>
       <c r="I1047647" s="16"/>
     </row>
-    <row r="1047648" spans="8:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1047648" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1047648" s="16"/>
       <c r="I1047648" s="16"/>
     </row>

--- a/Cargas Diarias/Cargas Diarias.xlsx
+++ b/Cargas Diarias/Cargas Diarias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puesto 17\Desktop\Github\Partes\Cargas Diarias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5330F837-B822-4AE0-B74A-EC70B47A3EA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84F32E8-2B04-434C-BEE1-3C6DE67E1751}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BCD83F86-A6AF-4FE0-AF75-50E1C7367F1C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="250">
   <si>
     <t xml:space="preserve">DIA  CARGA </t>
   </si>
@@ -785,6 +785,9 @@
   </si>
   <si>
     <t>FRANCISCO JIMENEZ CORRALES</t>
+  </si>
+  <si>
+    <t>JAVIER NUEVO</t>
   </si>
 </sst>
 </file>
@@ -1741,7 +1744,7 @@
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -49954,11 +49957,11 @@
       </c>
       <c r="K1047508" s="33"/>
     </row>
-    <row r="1047509" spans="2:11" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1047509" s="13" t="s">
+    <row r="1047509" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1047509" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="C1047509" s="41">
+      <c r="C1047509" s="42">
         <v>0</v>
       </c>
       <c r="E1047509" s="10">
@@ -49981,7 +49984,13 @@
       </c>
       <c r="K1047509" s="33"/>
     </row>
-    <row r="1047510" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1047510" spans="2:11" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1047510" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1047510" s="41">
+        <v>0</v>
+      </c>
       <c r="E1047510" s="10">
         <v>20487</v>
       </c>
@@ -55970,7 +55979,7 @@
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D700" xr:uid="{2BECA180-1181-4FDD-AC41-147A70314E6E}">
-      <formula1>$B$1047489:$B$1047509</formula1>
+      <formula1>$B$1047489:$B$1047510</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions headings="1"/>

--- a/Cargas Diarias/Cargas Diarias.xlsx
+++ b/Cargas Diarias/Cargas Diarias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puesto 17\Desktop\Github\Partes\Cargas Diarias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84F32E8-2B04-434C-BEE1-3C6DE67E1751}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E137A94-A438-49E2-9510-3712C60CDD3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BCD83F86-A6AF-4FE0-AF75-50E1C7367F1C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="252">
   <si>
     <t xml:space="preserve">DIA  CARGA </t>
   </si>
@@ -788,6 +788,12 @@
   </si>
   <si>
     <t>JAVIER NUEVO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REPRESENTACIONES SALAZAR,SL. </t>
+  </si>
+  <si>
+    <t>CUBITOS PAKOTE S.L</t>
   </si>
 </sst>
 </file>
@@ -1744,7 +1750,7 @@
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -52232,29 +52238,53 @@
         <v>233</v>
       </c>
     </row>
-    <row r="1047634" spans="5:10" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1047634" s="13">
+    <row r="1047634" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1047634" s="10">
         <v>538</v>
       </c>
-      <c r="F1047634" s="14" t="s">
+      <c r="F1047634" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="G1047634" s="14" t="s">
+      <c r="G1047634" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="H1047634" s="34"/>
-      <c r="I1047634" s="34"/>
-      <c r="J1047634" s="15" t="s">
+      <c r="H1047634" s="11"/>
+      <c r="I1047634" s="11"/>
+      <c r="J1047634" s="12" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="1047635" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H1047635" s="16"/>
-      <c r="I1047635" s="16"/>
-    </row>
-    <row r="1047636" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H1047636" s="16"/>
-      <c r="I1047636" s="16"/>
+      <c r="E1047635" s="10">
+        <v>518</v>
+      </c>
+      <c r="F1047635" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="G1047635" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1047635" s="11"/>
+      <c r="I1047635" s="11"/>
+      <c r="J1047635" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="1047636" spans="5:10" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1047636" s="13">
+        <v>516</v>
+      </c>
+      <c r="F1047636" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="G1047636" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="H1047636" s="34"/>
+      <c r="I1047636" s="34"/>
+      <c r="J1047636" s="15" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="1047637" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1047637" s="16"/>

--- a/Cargas Diarias/Cargas Diarias.xlsx
+++ b/Cargas Diarias/Cargas Diarias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puesto 17\Desktop\Github\Partes\Cargas Diarias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E137A94-A438-49E2-9510-3712C60CDD3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265BBB94-BDBE-4E5B-8030-153D285FFA2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BCD83F86-A6AF-4FE0-AF75-50E1C7367F1C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="253">
   <si>
     <t xml:space="preserve">DIA  CARGA </t>
   </si>
@@ -794,6 +794,9 @@
   </si>
   <si>
     <t>CUBITOS PAKOTE S.L</t>
+  </si>
+  <si>
+    <t>DULCEMUR</t>
   </si>
 </sst>
 </file>
@@ -1750,7 +1753,7 @@
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -52270,25 +52273,37 @@
         <v>233</v>
       </c>
     </row>
-    <row r="1047636" spans="5:10" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1047636" s="13">
+    <row r="1047636" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1047636" s="10">
         <v>516</v>
       </c>
-      <c r="F1047636" s="14" t="s">
+      <c r="F1047636" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="G1047636" s="14" t="s">
+      <c r="G1047636" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="H1047636" s="34"/>
-      <c r="I1047636" s="34"/>
-      <c r="J1047636" s="15" t="s">
+      <c r="H1047636" s="11"/>
+      <c r="I1047636" s="11"/>
+      <c r="J1047636" s="12" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="1047637" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H1047637" s="16"/>
-      <c r="I1047637" s="16"/>
+    <row r="1047637" spans="5:10" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1047637" s="13">
+        <v>540</v>
+      </c>
+      <c r="F1047637" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="G1047637" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1047637" s="34"/>
+      <c r="I1047637" s="34"/>
+      <c r="J1047637" s="15" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="1047638" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1047638" s="16"/>

--- a/Cargas Diarias/Cargas Diarias.xlsx
+++ b/Cargas Diarias/Cargas Diarias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puesto 17\Desktop\Github\Partes\Cargas Diarias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265BBB94-BDBE-4E5B-8030-153D285FFA2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB54FDB-0CBB-449C-8BF2-D8AA25AA208C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BCD83F86-A6AF-4FE0-AF75-50E1C7367F1C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="256">
   <si>
     <t xml:space="preserve">DIA  CARGA </t>
   </si>
@@ -797,6 +797,15 @@
   </si>
   <si>
     <t>DULCEMUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERBREAD,S.L. </t>
+  </si>
+  <si>
+    <t>ALIMENTACION CONPE,S.L.U</t>
+  </si>
+  <si>
+    <t>LEON</t>
   </si>
 </sst>
 </file>
@@ -52289,29 +52298,53 @@
         <v>233</v>
       </c>
     </row>
-    <row r="1047637" spans="5:10" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1047637" s="13">
+    <row r="1047637" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1047637" s="10">
         <v>540</v>
       </c>
-      <c r="F1047637" s="14" t="s">
+      <c r="F1047637" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="G1047637" s="14" t="s">
+      <c r="G1047637" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H1047637" s="34"/>
-      <c r="I1047637" s="34"/>
-      <c r="J1047637" s="15" t="s">
+      <c r="H1047637" s="11"/>
+      <c r="I1047637" s="11"/>
+      <c r="J1047637" s="12" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="1047638" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H1047638" s="16"/>
-      <c r="I1047638" s="16"/>
-    </row>
-    <row r="1047639" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H1047639" s="16"/>
-      <c r="I1047639" s="16"/>
+      <c r="E1047638" s="10">
+        <v>550</v>
+      </c>
+      <c r="F1047638" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G1047638" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1047638" s="11"/>
+      <c r="I1047638" s="11"/>
+      <c r="J1047638" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="1047639" spans="5:10" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1047639" s="13">
+        <v>209</v>
+      </c>
+      <c r="F1047639" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="G1047639" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="H1047639" s="34"/>
+      <c r="I1047639" s="34"/>
+      <c r="J1047639" s="15" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="1047640" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1047640" s="16"/>

--- a/Cargas Diarias/Cargas Diarias.xlsx
+++ b/Cargas Diarias/Cargas Diarias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puesto 17\Desktop\Github\Partes\Cargas Diarias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB54FDB-0CBB-449C-8BF2-D8AA25AA208C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3880ED6-BB1E-4CC3-B0C2-CED1BB056E9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BCD83F86-A6AF-4FE0-AF75-50E1C7367F1C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="257">
   <si>
     <t xml:space="preserve">DIA  CARGA </t>
   </si>
@@ -806,6 +806,9 @@
   </si>
   <si>
     <t>LEON</t>
+  </si>
+  <si>
+    <t>SORIN</t>
   </si>
 </sst>
 </file>
@@ -50002,11 +50005,11 @@
       </c>
       <c r="K1047509" s="33"/>
     </row>
-    <row r="1047510" spans="2:11" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1047510" s="13" t="s">
+    <row r="1047510" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1047510" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C1047510" s="41">
+      <c r="C1047510" s="42">
         <v>0</v>
       </c>
       <c r="E1047510" s="10">
@@ -50029,7 +50032,13 @@
       </c>
       <c r="K1047510" s="33"/>
     </row>
-    <row r="1047511" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1047511" spans="2:11" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1047511" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1047511" s="41">
+        <v>0</v>
+      </c>
       <c r="E1047511" s="10">
         <v>20486</v>
       </c>
@@ -52330,25 +52339,37 @@
         <v>233</v>
       </c>
     </row>
-    <row r="1047639" spans="5:10" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1047639" s="13">
+    <row r="1047639" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1047639" s="10">
         <v>209</v>
       </c>
-      <c r="F1047639" s="14" t="s">
+      <c r="F1047639" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="G1047639" s="14" t="s">
+      <c r="G1047639" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="H1047639" s="34"/>
-      <c r="I1047639" s="34"/>
-      <c r="J1047639" s="15" t="s">
+      <c r="H1047639" s="11"/>
+      <c r="I1047639" s="11"/>
+      <c r="J1047639" s="12" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="1047640" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H1047640" s="16"/>
-      <c r="I1047640" s="16"/>
+    <row r="1047640" spans="5:10" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1047640" s="13">
+        <v>518</v>
+      </c>
+      <c r="F1047640" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="G1047640" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1047640" s="34"/>
+      <c r="I1047640" s="34"/>
+      <c r="J1047640" s="15" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="1047641" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1047641" s="16"/>
@@ -56057,7 +56078,7 @@
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D700" xr:uid="{2BECA180-1181-4FDD-AC41-147A70314E6E}">
-      <formula1>$B$1047489:$B$1047510</formula1>
+      <formula1>$B$1047489:$B$1047511</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions headings="1"/>

--- a/Cargas Diarias/Cargas Diarias.xlsx
+++ b/Cargas Diarias/Cargas Diarias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puesto 17\Desktop\Github\Partes\Cargas Diarias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2784C607-FD19-4D6C-B940-A5578872B249}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DCCBE5-E9C6-4317-B907-E05716E5EB8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BCD83F86-A6AF-4FE0-AF75-50E1C7367F1C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="252">
   <si>
     <t xml:space="preserve">DIA  CARGA </t>
   </si>
@@ -792,6 +792,9 @@
   <si>
     <t xml:space="preserve">DULCIVAPA  S.L. </t>
   </si>
+  <si>
+    <t>ALCAMPO ZARAGOZA</t>
+  </si>
 </sst>
 </file>
 
@@ -1177,17 +1180,20 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -52239,29 +52245,49 @@
         <v>225</v>
       </c>
     </row>
-    <row r="1047642" spans="5:10" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1047642" s="40">
+    <row r="1047642" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1047642" s="18">
         <v>1611</v>
       </c>
-      <c r="F1047642" s="41" t="s">
+      <c r="F1047642" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="G1047642" s="41" t="s">
+      <c r="G1047642" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="H1047642" s="42"/>
-      <c r="I1047642" s="42"/>
-      <c r="J1047642" s="43" t="s">
+      <c r="H1047642" s="34"/>
+      <c r="I1047642" s="34"/>
+      <c r="J1047642" s="35" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="1047643" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H1047643" s="14"/>
-      <c r="I1047643" s="14"/>
-    </row>
-    <row r="1047644" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H1047644" s="14"/>
-      <c r="I1047644" s="14"/>
+      <c r="E1047643" s="10">
+        <v>9501</v>
+      </c>
+      <c r="F1047643" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="G1047643" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1047643" s="11"/>
+      <c r="I1047643" s="11"/>
+      <c r="J1047643" s="12"/>
+    </row>
+    <row r="1047644" spans="5:10" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1047644" s="13">
+        <v>9500</v>
+      </c>
+      <c r="F1047644" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="G1047644" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1047644" s="42"/>
+      <c r="I1047644" s="42"/>
+      <c r="J1047644" s="43"/>
     </row>
     <row r="1047645" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1047645" s="14"/>

--- a/Cargas Diarias/Cargas Diarias.xlsx
+++ b/Cargas Diarias/Cargas Diarias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puesto 17\Desktop\Github\Partes\Cargas Diarias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DCCBE5-E9C6-4317-B907-E05716E5EB8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB66B16B-B9E0-497F-87C4-C440CDC0B180}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BCD83F86-A6AF-4FE0-AF75-50E1C7367F1C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="257">
   <si>
     <t xml:space="preserve">DIA  CARGA </t>
   </si>
@@ -795,6 +795,21 @@
   <si>
     <t>ALCAMPO ZARAGOZA</t>
   </si>
+  <si>
+    <t xml:space="preserve">PENINSULACO,S.L. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRANCISCO BOTIA CEREZO </t>
+  </si>
+  <si>
+    <t>PA NADERIA  MILAGROS DIAZ, S.L.</t>
+  </si>
+  <si>
+    <t>PANADERIA  MILAGROS DIAZ, S.L.</t>
+  </si>
+  <si>
+    <t>FABRICA CAZALEGAS</t>
+  </si>
 </sst>
 </file>
 
@@ -1034,7 +1049,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1178,9 +1193,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -52273,99 +52285,161 @@
       </c>
       <c r="H1047643" s="11"/>
       <c r="I1047643" s="11"/>
-      <c r="J1047643" s="12"/>
-    </row>
-    <row r="1047644" spans="5:10" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1047644" s="13">
+      <c r="J1047643" s="12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="1047644" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1047644" s="10">
         <v>9500</v>
       </c>
-      <c r="F1047644" s="40" t="s">
+      <c r="F1047644" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="G1047644" s="41" t="s">
+      <c r="G1047644" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H1047644" s="42"/>
-      <c r="I1047644" s="42"/>
-      <c r="J1047644" s="43"/>
+      <c r="H1047644" s="11"/>
+      <c r="I1047644" s="11"/>
+      <c r="J1047644" s="12" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="1047645" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H1047645" s="14"/>
-      <c r="I1047645" s="14"/>
+      <c r="E1047645" s="10">
+        <v>29018</v>
+      </c>
+      <c r="F1047645" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G1047645" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1047645" s="11"/>
+      <c r="I1047645" s="11"/>
+      <c r="J1047645" s="12" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="1047646" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H1047646" s="14"/>
-      <c r="I1047646" s="14"/>
+      <c r="E1047646" s="10">
+        <v>816</v>
+      </c>
+      <c r="F1047646" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G1047646" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1047646" s="11"/>
+      <c r="I1047646" s="11"/>
+      <c r="J1047646" s="12" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="1047647" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H1047647" s="14"/>
-      <c r="I1047647" s="14"/>
+      <c r="E1047647" s="10">
+        <v>806</v>
+      </c>
+      <c r="F1047647" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="G1047647" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1047647" s="11"/>
+      <c r="I1047647" s="11"/>
+      <c r="J1047647" s="12" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="1047648" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H1047648" s="14"/>
-      <c r="I1047648" s="14"/>
-    </row>
-    <row r="1047649" spans="8:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H1047649" s="14"/>
-      <c r="I1047649" s="14"/>
-    </row>
-    <row r="1047650" spans="8:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1047648" s="10">
+        <v>811</v>
+      </c>
+      <c r="F1047648" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G1047648" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1047648" s="11"/>
+      <c r="I1047648" s="11"/>
+      <c r="J1047648" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="1047649" spans="5:10" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1047649" s="13">
+        <v>9600</v>
+      </c>
+      <c r="F1047649" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="G1047649" s="40"/>
+      <c r="H1047649" s="41"/>
+      <c r="I1047649" s="41"/>
+      <c r="J1047649" s="42" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="1047650" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1047650" s="14"/>
       <c r="I1047650" s="14"/>
     </row>
-    <row r="1047651" spans="8:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1047651" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1047651" s="14"/>
       <c r="I1047651" s="14"/>
     </row>
-    <row r="1047652" spans="8:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1047652" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1047652" s="14"/>
       <c r="I1047652" s="14"/>
     </row>
-    <row r="1047653" spans="8:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1047653" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1047653" s="14"/>
       <c r="I1047653" s="14"/>
     </row>
-    <row r="1047654" spans="8:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1047654" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1047654" s="14"/>
       <c r="I1047654" s="14"/>
     </row>
-    <row r="1047655" spans="8:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1047655" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1047655" s="14"/>
       <c r="I1047655" s="14"/>
     </row>
-    <row r="1047656" spans="8:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1047656" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1047656" s="14"/>
       <c r="I1047656" s="14"/>
     </row>
-    <row r="1047657" spans="8:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1047657" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1047657" s="14"/>
       <c r="I1047657" s="14"/>
     </row>
-    <row r="1047658" spans="8:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1047658" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1047658" s="14"/>
       <c r="I1047658" s="14"/>
     </row>
-    <row r="1047659" spans="8:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1047659" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1047659" s="14"/>
       <c r="I1047659" s="14"/>
     </row>
-    <row r="1047660" spans="8:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1047660" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1047660" s="14"/>
       <c r="I1047660" s="14"/>
     </row>
-    <row r="1047661" spans="8:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1047661" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1047661" s="14"/>
       <c r="I1047661" s="14"/>
     </row>
-    <row r="1047662" spans="8:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1047662" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1047662" s="14"/>
       <c r="I1047662" s="14"/>
     </row>
-    <row r="1047663" spans="8:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1047663" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1047663" s="14"/>
       <c r="I1047663" s="14"/>
     </row>
-    <row r="1047664" spans="8:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1047664" spans="5:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1047664" s="14"/>
       <c r="I1047664" s="14"/>
     </row>

--- a/Cargas Diarias/Cargas Diarias.xlsx
+++ b/Cargas Diarias/Cargas Diarias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puesto 17\Desktop\Github\Partes\Cargas Diarias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BFC005-0285-4BAF-BB03-FD1C466528FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DFA847-9F7F-4E77-A354-E59E0FDB8307}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BCD83F86-A6AF-4FE0-AF75-50E1C7367F1C}"/>
   </bookViews>
@@ -1278,7 +1278,19 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
@@ -1551,26 +1563,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C0108FF9-21B4-4105-BAF7-BB9BAB648E16}" name="Clientes39" displayName="Clientes39" ref="E1047488:J1048576" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C0108FF9-21B4-4105-BAF7-BB9BAB648E16}" name="Clientes39" displayName="Clientes39" ref="E1047488:J1048576" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
   <autoFilter ref="E1047488:J1048576" xr:uid="{6AD39BC6-6D70-4A84-BF67-8134046DC937}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A810B069-8FAE-4543-8BE1-141C09A1780E}" name="CODIGO" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{D9B583B5-95AA-4DAF-B96E-9CD210060602}" name="CLIENTE" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{D3B46617-387D-4DE5-8C6B-746AD45B9D4E}" name="DESTINO" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{E781D176-4D27-4ECC-A17B-7C7C08F643CD}" name="PORCENTAJE" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{57B11A46-92A6-4DD1-9DD0-9B0D3A3EA119}" name="TIPO FORMULA" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{ADA19441-AC82-45E2-9641-F613847AA5B7}" name="TIPO TEXTO" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{A810B069-8FAE-4543-8BE1-141C09A1780E}" name="CODIGO" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{D9B583B5-95AA-4DAF-B96E-9CD210060602}" name="CLIENTE" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{D3B46617-387D-4DE5-8C6B-746AD45B9D4E}" name="DESTINO" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{E781D176-4D27-4ECC-A17B-7C7C08F643CD}" name="PORCENTAJE" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{57B11A46-92A6-4DD1-9DD0-9B0D3A3EA119}" name="TIPO FORMULA" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{ADA19441-AC82-45E2-9641-F613847AA5B7}" name="TIPO TEXTO" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{02DCF996-9574-43B9-8CC4-C551B87DD25E}" name="Agencia" displayName="Agencia" ref="B1047488:C1048576" totalsRowShown="0" headerRowDxfId="5" dataDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{02DCF996-9574-43B9-8CC4-C551B87DD25E}" name="Agencia" displayName="Agencia" ref="B1047488:C1048576" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
   <autoFilter ref="B1047488:C1048576" xr:uid="{D606D2EC-0421-48D4-B791-2EEC0730C31F}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{9D9174A0-D3B1-4452-BF0D-7F126C34CE02}" name="AGENCIA" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{E09067EE-D47D-4360-ADA8-8EA2DA2534AC}" name="PORCENTAJE" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{9D9174A0-D3B1-4452-BF0D-7F126C34CE02}" name="AGENCIA" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{E09067EE-D47D-4360-ADA8-8EA2DA2534AC}" name="PORCENTAJE" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1881,26 +1893,30 @@
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="15.5703125" style="4"/>
-    <col min="6" max="6" width="23.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="4"/>
+    <col min="2" max="3" width="13.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="4" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="4" customWidth="1"/>
     <col min="8" max="8" width="24.5703125" style="4" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" style="4"/>
-    <col min="10" max="10" width="8.28515625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="4" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" style="4" customWidth="1"/>
-    <col min="12" max="13" width="15.5703125" style="9"/>
-    <col min="14" max="14" width="15.5703125" style="4"/>
-    <col min="15" max="16" width="15.5703125" style="15"/>
+    <col min="12" max="13" width="11.28515625" style="9" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" style="4" customWidth="1"/>
+    <col min="15" max="16" width="11.28515625" style="15" customWidth="1"/>
     <col min="17" max="18" width="15.5703125" style="4"/>
-    <col min="19" max="19" width="15.5703125" style="9"/>
-    <col min="20" max="20" width="15.5703125" style="14"/>
-    <col min="21" max="22" width="15.5703125" style="4"/>
-    <col min="23" max="23" width="15.5703125" style="14"/>
+    <col min="19" max="19" width="12.85546875" style="9" customWidth="1"/>
+    <col min="20" max="20" width="13" style="14" customWidth="1"/>
+    <col min="21" max="21" width="15.5703125" style="4"/>
+    <col min="22" max="22" width="13.42578125" style="4" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="14" customWidth="1"/>
     <col min="24" max="24" width="43" style="4" customWidth="1"/>
     <col min="25" max="16384" width="15.5703125" style="4"/>
   </cols>
@@ -60060,12 +60076,12 @@
   <sheetProtection formatCells="0" sort="0" autoFilter="0"/>
   <autoFilter ref="A1:X700" xr:uid="{F9BEDCBF-6454-419C-B0E4-C29CB363FCB9}"/>
   <conditionalFormatting sqref="T176:T700">
-    <cfRule type="expression" dxfId="17" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>$H176=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T175">
-    <cfRule type="expression" dxfId="16" priority="1">
+    <cfRule type="expression" dxfId="18" priority="1">
       <formula>$H2=0</formula>
     </cfRule>
   </conditionalFormatting>
